--- a/Clash royale.xlsx
+++ b/Clash royale.xlsx
@@ -2,29 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.nfumutual.co.uk\Users\Homes2\HR010BL\My Documents\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="35385" yWindow="0" windowWidth="27705" windowHeight="14520" tabRatio="608" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="35385" yWindow="0" windowWidth="27705" windowHeight="14520" tabRatio="608" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TOTAL WAR STATS" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="October" sheetId="4" state="hidden" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
-    <sheet name="Janruary" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId4"/>
+    <sheet name="Janruary" sheetId="5" r:id="rId5"/>
+    <sheet name="February" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Janruary!$B$2:$Y$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Janruary!$B$2:$Y$64</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">October!$B$2:$U$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TOTAL WAR STATS'!$C$4:$G$36</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="242">
   <si>
     <t>Jax Teller</t>
   </si>
@@ -692,16 +694,86 @@
   </si>
   <si>
     <t>Sum of Total Wins</t>
+  </si>
+  <si>
+    <t>Participaint</t>
+  </si>
+  <si>
+    <t>Column15</t>
+  </si>
+  <si>
+    <t>Column16</t>
+  </si>
+  <si>
+    <t>08/02/2019</t>
+  </si>
+  <si>
+    <t>02/02/2019</t>
+  </si>
+  <si>
+    <t>04/02/2019</t>
+  </si>
+  <si>
+    <t>06/02/2019</t>
+  </si>
+  <si>
+    <t>10/02/2019</t>
+  </si>
+  <si>
+    <t>12/02/2019</t>
+  </si>
+  <si>
+    <t>14/02/2019</t>
+  </si>
+  <si>
+    <t>16/02/2019</t>
+  </si>
+  <si>
+    <t>18/02/2019</t>
+  </si>
+  <si>
+    <t>20/02/2019</t>
+  </si>
+  <si>
+    <t>22/02/2019</t>
+  </si>
+  <si>
+    <t>24/02/2019</t>
+  </si>
+  <si>
+    <t>26/02/2019</t>
+  </si>
+  <si>
+    <t>28/02/2019</t>
+  </si>
+  <si>
+    <t>cralph</t>
+  </si>
+  <si>
+    <t>Beljic</t>
+  </si>
+  <si>
+    <t>DyNaMiiKz</t>
+  </si>
+  <si>
+    <t>slipperynip</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>THEBEA5THIM5ELF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mmm"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -790,6 +862,28 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1215,7 +1309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1388,12 +1482,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1432,24 +1520,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1480,11 +1550,67 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="13" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="15" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="55">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1492,6 +1618,720 @@
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2398,6 +3238,60 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>405946</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>24946</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>40441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="405946" y="8704791"/>
+          <a:ext cx="21431250" cy="39119"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="NFU Mutual" refreshedDate="43496.445296527774" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="62">
   <cacheSource type="worksheet">
@@ -2471,7 +3365,12 @@
       </sharedItems>
     </cacheField>
     <cacheField name="01/01/2019" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="1"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="1" count="4">
+        <n v="1"/>
+        <s v="x"/>
+        <n v="0"/>
+        <n v="0.79069767441860461"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="03/01/2019" numFmtId="0">
       <sharedItems containsMixedTypes="1" containsNumber="1" minValue="-1" maxValue="1"/>
@@ -2570,7 +3469,7 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="62">
   <r>
     <x v="0"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="0"/>
     <n v="1"/>
@@ -2596,7 +3495,7 @@
   </r>
   <r>
     <x v="1"/>
-    <s v="x"/>
+    <x v="1"/>
     <s v="x"/>
     <s v="x"/>
     <s v="x"/>
@@ -2622,7 +3521,7 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -2648,7 +3547,7 @@
   </r>
   <r>
     <x v="3"/>
-    <s v="x"/>
+    <x v="1"/>
     <s v="x"/>
     <s v="x"/>
     <s v="x"/>
@@ -2674,7 +3573,7 @@
   </r>
   <r>
     <x v="4"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -2700,7 +3599,7 @@
   </r>
   <r>
     <x v="5"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="-1"/>
     <n v="0"/>
     <s v="x"/>
@@ -2726,7 +3625,7 @@
   </r>
   <r>
     <x v="6"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <s v="x"/>
     <n v="0"/>
@@ -2752,7 +3651,7 @@
   </r>
   <r>
     <x v="7"/>
-    <n v="0"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -2778,7 +3677,7 @@
   </r>
   <r>
     <x v="8"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="0"/>
     <s v="x"/>
     <n v="1"/>
@@ -2804,7 +3703,7 @@
   </r>
   <r>
     <x v="9"/>
-    <n v="0"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -2830,7 +3729,7 @@
   </r>
   <r>
     <x v="10"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -2856,7 +3755,7 @@
   </r>
   <r>
     <x v="11"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="0"/>
@@ -2882,7 +3781,7 @@
   </r>
   <r>
     <x v="12"/>
-    <n v="0"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -2908,7 +3807,7 @@
   </r>
   <r>
     <x v="13"/>
-    <n v="0"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="0"/>
     <n v="1"/>
@@ -2934,7 +3833,7 @@
   </r>
   <r>
     <x v="14"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -2960,7 +3859,7 @@
   </r>
   <r>
     <x v="15"/>
-    <n v="0"/>
+    <x v="2"/>
     <s v="x"/>
     <s v="x"/>
     <s v="x"/>
@@ -2986,7 +3885,7 @@
   </r>
   <r>
     <x v="16"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="0"/>
@@ -3012,7 +3911,7 @@
   </r>
   <r>
     <x v="17"/>
-    <n v="1"/>
+    <x v="0"/>
     <s v="x"/>
     <s v="x"/>
     <n v="0"/>
@@ -3038,7 +3937,7 @@
   </r>
   <r>
     <x v="18"/>
-    <n v="0"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -3064,7 +3963,7 @@
   </r>
   <r>
     <x v="19"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <s v="x"/>
     <n v="1"/>
@@ -3090,7 +3989,7 @@
   </r>
   <r>
     <x v="20"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="1"/>
     <n v="1"/>
@@ -3116,7 +4015,7 @@
   </r>
   <r>
     <x v="21"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -3142,7 +4041,7 @@
   </r>
   <r>
     <x v="22"/>
-    <s v="x"/>
+    <x v="1"/>
     <s v="x"/>
     <s v="x"/>
     <s v="x"/>
@@ -3168,7 +4067,7 @@
   </r>
   <r>
     <x v="23"/>
-    <n v="1"/>
+    <x v="0"/>
     <s v="x"/>
     <n v="0"/>
     <s v="x"/>
@@ -3194,7 +4093,7 @@
   </r>
   <r>
     <x v="24"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="0"/>
     <s v="x"/>
     <s v="x"/>
@@ -3220,7 +4119,7 @@
   </r>
   <r>
     <x v="25"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -3246,7 +4145,7 @@
   </r>
   <r>
     <x v="26"/>
-    <s v="x"/>
+    <x v="1"/>
     <s v="x"/>
     <s v="x"/>
     <s v="x"/>
@@ -3272,7 +4171,7 @@
   </r>
   <r>
     <x v="27"/>
-    <s v="x"/>
+    <x v="1"/>
     <s v="x"/>
     <s v="x"/>
     <s v="x"/>
@@ -3298,7 +4197,7 @@
   </r>
   <r>
     <x v="28"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -3324,7 +4223,7 @@
   </r>
   <r>
     <x v="29"/>
-    <s v="x"/>
+    <x v="1"/>
     <s v="x"/>
     <n v="0"/>
     <s v="x"/>
@@ -3350,7 +4249,7 @@
   </r>
   <r>
     <x v="30"/>
-    <s v="x"/>
+    <x v="1"/>
     <s v="x"/>
     <s v="x"/>
     <s v="x"/>
@@ -3376,7 +4275,7 @@
   </r>
   <r>
     <x v="31"/>
-    <s v="x"/>
+    <x v="1"/>
     <s v="x"/>
     <s v="x"/>
     <s v="x"/>
@@ -3402,7 +4301,7 @@
   </r>
   <r>
     <x v="32"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="0"/>
     <s v="x"/>
     <n v="1"/>
@@ -3428,7 +4327,7 @@
   </r>
   <r>
     <x v="33"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -3454,7 +4353,7 @@
   </r>
   <r>
     <x v="34"/>
-    <s v="x"/>
+    <x v="1"/>
     <s v="x"/>
     <s v="x"/>
     <s v="x"/>
@@ -3480,7 +4379,7 @@
   </r>
   <r>
     <x v="35"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="1"/>
@@ -3506,7 +4405,7 @@
   </r>
   <r>
     <x v="36"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="0"/>
     <n v="1"/>
@@ -3532,7 +4431,7 @@
   </r>
   <r>
     <x v="37"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="0"/>
@@ -3558,7 +4457,7 @@
   </r>
   <r>
     <x v="38"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -3584,7 +4483,7 @@
   </r>
   <r>
     <x v="39"/>
-    <s v="x"/>
+    <x v="1"/>
     <s v="x"/>
     <s v="x"/>
     <s v="x"/>
@@ -3610,7 +4509,7 @@
   </r>
   <r>
     <x v="40"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -3636,7 +4535,7 @@
   </r>
   <r>
     <x v="41"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -3662,7 +4561,7 @@
   </r>
   <r>
     <x v="42"/>
-    <s v="x"/>
+    <x v="1"/>
     <s v="x"/>
     <s v="x"/>
     <s v="x"/>
@@ -3688,7 +4587,7 @@
   </r>
   <r>
     <x v="43"/>
-    <s v="x"/>
+    <x v="1"/>
     <n v="0"/>
     <n v="1"/>
     <n v="0"/>
@@ -3714,7 +4613,7 @@
   </r>
   <r>
     <x v="44"/>
-    <s v="x"/>
+    <x v="1"/>
     <s v="x"/>
     <s v="x"/>
     <s v="x"/>
@@ -3740,7 +4639,7 @@
   </r>
   <r>
     <x v="45"/>
-    <n v="0"/>
+    <x v="2"/>
     <n v="0"/>
     <n v="0"/>
     <n v="1"/>
@@ -3766,7 +4665,7 @@
   </r>
   <r>
     <x v="46"/>
-    <n v="0"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -3792,7 +4691,7 @@
   </r>
   <r>
     <x v="47"/>
-    <s v="x"/>
+    <x v="1"/>
     <n v="1"/>
     <n v="0"/>
     <n v="1"/>
@@ -3818,7 +4717,7 @@
   </r>
   <r>
     <x v="48"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="0"/>
     <n v="1"/>
@@ -3844,7 +4743,7 @@
   </r>
   <r>
     <x v="49"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="1"/>
     <n v="0"/>
@@ -3870,7 +4769,7 @@
   </r>
   <r>
     <x v="50"/>
-    <n v="0"/>
+    <x v="2"/>
     <n v="0"/>
     <s v="x"/>
     <n v="0"/>
@@ -3896,7 +4795,7 @@
   </r>
   <r>
     <x v="51"/>
-    <s v="x"/>
+    <x v="1"/>
     <s v="x"/>
     <s v="x"/>
     <s v="x"/>
@@ -3922,7 +4821,7 @@
   </r>
   <r>
     <x v="52"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1"/>
     <n v="1"/>
@@ -3948,7 +4847,7 @@
   </r>
   <r>
     <x v="53"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
     <s v="x"/>
@@ -3974,7 +4873,7 @@
   </r>
   <r>
     <x v="54"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="1"/>
     <n v="0"/>
@@ -4000,7 +4899,7 @@
   </r>
   <r>
     <x v="55"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="0"/>
     <n v="0"/>
@@ -4026,7 +4925,7 @@
   </r>
   <r>
     <x v="56"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="1"/>
@@ -4052,7 +4951,7 @@
   </r>
   <r>
     <x v="57"/>
-    <s v="x"/>
+    <x v="1"/>
     <s v="x"/>
     <n v="1"/>
     <n v="1"/>
@@ -4078,7 +4977,7 @@
   </r>
   <r>
     <x v="58"/>
-    <n v="1"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="0"/>
     <n v="1"/>
@@ -4104,7 +5003,7 @@
   </r>
   <r>
     <x v="59"/>
-    <s v="x"/>
+    <x v="1"/>
     <s v="x"/>
     <s v="x"/>
     <s v="x"/>
@@ -4130,7 +5029,7 @@
   </r>
   <r>
     <x v="60"/>
-    <s v="x"/>
+    <x v="1"/>
     <s v="x"/>
     <s v="x"/>
     <s v="x"/>
@@ -4156,7 +5055,7 @@
   </r>
   <r>
     <x v="61"/>
-    <n v="0.79069767441860461"/>
+    <x v="3"/>
     <n v="0.5714285714285714"/>
     <n v="0.61538461538461542"/>
     <n v="0.73170731707317072"/>
@@ -4509,28 +5408,81 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:Y63" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:Y63" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="53" tableBorderDxfId="52">
   <autoFilter ref="B2:Y63"/>
   <tableColumns count="24">
+    <tableColumn id="1" name="Player" dataDxfId="51"/>
+    <tableColumn id="2" name="01/01/2019" dataDxfId="50"/>
+    <tableColumn id="3" name="03/01/2019" dataDxfId="49"/>
+    <tableColumn id="4" name="05/01/2019" dataDxfId="48"/>
+    <tableColumn id="5" name="07/01/2019" dataDxfId="47"/>
+    <tableColumn id="6" name="09/01/2019" dataDxfId="46"/>
+    <tableColumn id="7" name="11/01/2019" dataDxfId="45"/>
+    <tableColumn id="8" name="13/01/2019" dataDxfId="44"/>
+    <tableColumn id="9" name="15/01/2019" dataDxfId="43"/>
+    <tableColumn id="10" name="17/01/2019" dataDxfId="42"/>
+    <tableColumn id="11" name="19/01/2019" dataDxfId="41"/>
+    <tableColumn id="12" name="21/01/2019" dataDxfId="40"/>
+    <tableColumn id="13" name="23/01/2019" dataDxfId="39"/>
+    <tableColumn id="14" name="25/01/2019" dataDxfId="38"/>
+    <tableColumn id="15" name="27/01/2019" dataDxfId="37"/>
+    <tableColumn id="16" name="29/01/2019" dataDxfId="36"/>
+    <tableColumn id="21" name="31/01/2019" dataDxfId="35"/>
+    <tableColumn id="17" name="Total Wins" dataDxfId="34">
+      <calculatedColumnFormula>SUM(Table1[[#This Row],[01/01/2019]:[31/01/2019]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="Losses" dataDxfId="33">
+      <calculatedColumnFormula>(U3-S3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="War Battles Participated in" dataDxfId="32">
+      <calculatedColumnFormula>COUNT(C3:Q3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" name="Missed Collection Days" dataDxfId="31"/>
+    <tableColumn id="22" name="Missed War Matches" dataDxfId="30"/>
+    <tableColumn id="24" name="Points" dataDxfId="29">
+      <calculatedColumnFormula>(Table1[[#This Row],[Missed Collection Days]]*25)+(Table1[[#This Row],[Missed War Matches]]*50)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" name="Win Rate" dataDxfId="28">
+      <calculatedColumnFormula>IFERROR(S3/U3,0)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B2:Y53" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
+  <autoFilter ref="B2:Y53">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="B3:Y53">
+    <sortCondition descending="1" ref="Y3:Y53"/>
+    <sortCondition descending="1" ref="S3:S53"/>
+    <sortCondition ref="X3:X53"/>
+    <sortCondition descending="1" ref="U3:U53"/>
+  </sortState>
+  <tableColumns count="24">
     <tableColumn id="1" name="Player" dataDxfId="24"/>
-    <tableColumn id="2" name="01/01/2019" dataDxfId="23"/>
-    <tableColumn id="3" name="03/01/2019" dataDxfId="22"/>
-    <tableColumn id="4" name="05/01/2019" dataDxfId="21"/>
-    <tableColumn id="5" name="07/01/2019" dataDxfId="20"/>
-    <tableColumn id="6" name="09/01/2019" dataDxfId="19"/>
-    <tableColumn id="7" name="11/01/2019" dataDxfId="18"/>
-    <tableColumn id="8" name="13/01/2019" dataDxfId="17"/>
-    <tableColumn id="9" name="15/01/2019" dataDxfId="16"/>
-    <tableColumn id="10" name="17/01/2019" dataDxfId="15"/>
-    <tableColumn id="11" name="19/01/2019" dataDxfId="14"/>
-    <tableColumn id="12" name="21/01/2019" dataDxfId="13"/>
-    <tableColumn id="13" name="23/01/2019" dataDxfId="12"/>
-    <tableColumn id="14" name="25/01/2019" dataDxfId="11"/>
-    <tableColumn id="15" name="27/01/2019" dataDxfId="10"/>
-    <tableColumn id="16" name="29/01/2019" dataDxfId="9"/>
-    <tableColumn id="21" name="31/01/2019" dataDxfId="8"/>
+    <tableColumn id="2" name="02/02/2019" dataDxfId="23"/>
+    <tableColumn id="3" name="04/02/2019" dataDxfId="22"/>
+    <tableColumn id="4" name="06/02/2019" dataDxfId="21"/>
+    <tableColumn id="5" name="08/02/2019" dataDxfId="20"/>
+    <tableColumn id="6" name="10/02/2019" dataDxfId="19"/>
+    <tableColumn id="7" name="12/02/2019" dataDxfId="18"/>
+    <tableColumn id="8" name="14/02/2019" dataDxfId="17"/>
+    <tableColumn id="9" name="16/02/2019" dataDxfId="16"/>
+    <tableColumn id="10" name="18/02/2019" dataDxfId="15"/>
+    <tableColumn id="11" name="20/02/2019" dataDxfId="14"/>
+    <tableColumn id="12" name="22/02/2019" dataDxfId="13"/>
+    <tableColumn id="13" name="24/02/2019" dataDxfId="12"/>
+    <tableColumn id="14" name="26/02/2019" dataDxfId="11"/>
+    <tableColumn id="15" name="28/02/2019" dataDxfId="10"/>
+    <tableColumn id="16" name="Column15" dataDxfId="9"/>
+    <tableColumn id="21" name="Column16" dataDxfId="8"/>
     <tableColumn id="17" name="Total Wins" dataDxfId="7">
-      <calculatedColumnFormula>SUM(Table1[[#This Row],[01/01/2019]:[31/01/2019]])</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" name="Losses" dataDxfId="6">
       <calculatedColumnFormula>(U3-S3)</calculatedColumnFormula>
@@ -4541,7 +5493,7 @@
     <tableColumn id="23" name="Missed Collection Days" dataDxfId="4"/>
     <tableColumn id="22" name="Missed War Matches" dataDxfId="3"/>
     <tableColumn id="24" name="Points" dataDxfId="2">
-      <calculatedColumnFormula>(Table1[[#This Row],[Missed Collection Days]]*25)+(Table1[[#This Row],[Missed War Matches]]*50)</calculatedColumnFormula>
+      <calculatedColumnFormula>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="20" name="Win Rate" dataDxfId="1">
       <calculatedColumnFormula>IFERROR(S3/U3,0)</calculatedColumnFormula>
@@ -4832,22 +5784,22 @@
   <sheetData>
     <row r="1" spans="2:8" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="102"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="132"/>
     </row>
     <row r="3" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="103">
+      <c r="C3" s="133">
         <v>43431</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="105"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="135"/>
     </row>
     <row r="4" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="3" t="s">
@@ -10709,7 +11661,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="100" t="s">
         <v>216</v>
       </c>
       <c r="B3" t="s">
@@ -10717,7 +11669,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="101" t="s">
         <v>157</v>
       </c>
       <c r="B4" s="4">
@@ -10725,7 +11677,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="101" t="s">
         <v>211</v>
       </c>
       <c r="B5" s="4">
@@ -10733,7 +11685,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="101" t="s">
         <v>156</v>
       </c>
       <c r="B6" s="4">
@@ -10741,7 +11693,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="101" t="s">
         <v>207</v>
       </c>
       <c r="B7" s="4">
@@ -10749,7 +11701,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="101" t="s">
         <v>171</v>
       </c>
       <c r="B8" s="4">
@@ -10757,7 +11709,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="101" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="4">
@@ -10765,7 +11717,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="101" t="s">
         <v>162</v>
       </c>
       <c r="B10" s="4">
@@ -10773,7 +11725,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="101" t="s">
         <v>185</v>
       </c>
       <c r="B11" s="4">
@@ -10781,7 +11733,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="101" t="s">
         <v>182</v>
       </c>
       <c r="B12" s="4">
@@ -10789,7 +11741,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="101" t="s">
         <v>187</v>
       </c>
       <c r="B13" s="4">
@@ -10797,7 +11749,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="101" t="s">
         <v>208</v>
       </c>
       <c r="B14" s="4">
@@ -10805,7 +11757,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="101" t="s">
         <v>174</v>
       </c>
       <c r="B15" s="4">
@@ -10813,7 +11765,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="101" t="s">
         <v>186</v>
       </c>
       <c r="B16" s="4">
@@ -10821,7 +11773,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="101" t="s">
         <v>188</v>
       </c>
       <c r="B17" s="4">
@@ -10829,7 +11781,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="109" t="s">
+      <c r="A18" s="101" t="s">
         <v>166</v>
       </c>
       <c r="B18" s="4">
@@ -10837,7 +11789,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="109" t="s">
+      <c r="A19" s="101" t="s">
         <v>191</v>
       </c>
       <c r="B19" s="4">
@@ -10845,7 +11797,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="109" t="s">
+      <c r="A20" s="101" t="s">
         <v>165</v>
       </c>
       <c r="B20" s="4">
@@ -10853,7 +11805,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="109" t="s">
+      <c r="A21" s="101" t="s">
         <v>153</v>
       </c>
       <c r="B21" s="4">
@@ -10861,7 +11813,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="109" t="s">
+      <c r="A22" s="101" t="s">
         <v>197</v>
       </c>
       <c r="B22" s="4">
@@ -10869,7 +11821,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="109" t="s">
+      <c r="A23" s="101" t="s">
         <v>183</v>
       </c>
       <c r="B23" s="4">
@@ -10877,7 +11829,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="109" t="s">
+      <c r="A24" s="101" t="s">
         <v>172</v>
       </c>
       <c r="B24" s="4">
@@ -10885,7 +11837,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="109" t="s">
+      <c r="A25" s="101" t="s">
         <v>179</v>
       </c>
       <c r="B25" s="4">
@@ -10893,7 +11845,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="109" t="s">
+      <c r="A26" s="101" t="s">
         <v>203</v>
       </c>
       <c r="B26" s="4">
@@ -10901,7 +11853,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="109" t="s">
+      <c r="A27" s="101" t="s">
         <v>161</v>
       </c>
       <c r="B27" s="4">
@@ -10909,7 +11861,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="109" t="s">
+      <c r="A28" s="101" t="s">
         <v>101</v>
       </c>
       <c r="B28" s="4">
@@ -10917,7 +11869,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="109" t="s">
+      <c r="A29" s="101" t="s">
         <v>159</v>
       </c>
       <c r="B29" s="4">
@@ -10925,7 +11877,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="109" t="s">
+      <c r="A30" s="101" t="s">
         <v>158</v>
       </c>
       <c r="B30" s="4">
@@ -10933,7 +11885,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="109" t="s">
+      <c r="A31" s="101" t="s">
         <v>196</v>
       </c>
       <c r="B31" s="4">
@@ -10941,7 +11893,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="109" t="s">
+      <c r="A32" s="101" t="s">
         <v>213</v>
       </c>
       <c r="B32" s="4">
@@ -10949,7 +11901,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="109" t="s">
+      <c r="A33" s="101" t="s">
         <v>154</v>
       </c>
       <c r="B33" s="4">
@@ -10957,7 +11909,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="109" t="s">
+      <c r="A34" s="101" t="s">
         <v>195</v>
       </c>
       <c r="B34" s="4">
@@ -10965,7 +11917,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="109" t="s">
+      <c r="A35" s="101" t="s">
         <v>201</v>
       </c>
       <c r="B35" s="4">
@@ -10973,7 +11925,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="109" t="s">
+      <c r="A36" s="101" t="s">
         <v>209</v>
       </c>
       <c r="B36" s="4">
@@ -10981,7 +11933,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="109" t="s">
+      <c r="A37" s="101" t="s">
         <v>160</v>
       </c>
       <c r="B37" s="4">
@@ -10989,7 +11941,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="109" t="s">
+      <c r="A38" s="101" t="s">
         <v>178</v>
       </c>
       <c r="B38" s="4">
@@ -10997,7 +11949,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="109" t="s">
+      <c r="A39" s="101" t="s">
         <v>168</v>
       </c>
       <c r="B39" s="4">
@@ -11005,7 +11957,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="109" t="s">
+      <c r="A40" s="101" t="s">
         <v>170</v>
       </c>
       <c r="B40" s="4">
@@ -11013,7 +11965,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="109" t="s">
+      <c r="A41" s="101" t="s">
         <v>152</v>
       </c>
       <c r="B41" s="4">
@@ -11021,7 +11973,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="109" t="s">
+      <c r="A42" s="101" t="s">
         <v>177</v>
       </c>
       <c r="B42" s="4">
@@ -11029,7 +11981,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="109" t="s">
+      <c r="A43" s="101" t="s">
         <v>214</v>
       </c>
       <c r="B43" s="4">
@@ -11037,7 +11989,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="109" t="s">
+      <c r="A44" s="101" t="s">
         <v>210</v>
       </c>
       <c r="B44" s="4">
@@ -11045,7 +11997,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="109" t="s">
+      <c r="A45" s="101" t="s">
         <v>173</v>
       </c>
       <c r="B45" s="4">
@@ -11053,7 +12005,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="109" t="s">
+      <c r="A46" s="101" t="s">
         <v>180</v>
       </c>
       <c r="B46" s="4">
@@ -11061,7 +12013,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="109" t="s">
+      <c r="A47" s="101" t="s">
         <v>193</v>
       </c>
       <c r="B47" s="4">
@@ -11069,7 +12021,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="109" t="s">
+      <c r="A48" s="101" t="s">
         <v>198</v>
       </c>
       <c r="B48" s="4">
@@ -11077,7 +12029,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="109" t="s">
+      <c r="A49" s="101" t="s">
         <v>190</v>
       </c>
       <c r="B49" s="4">
@@ -11085,7 +12037,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="109" t="s">
+      <c r="A50" s="101" t="s">
         <v>189</v>
       </c>
       <c r="B50" s="4">
@@ -11093,7 +12045,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="109" t="s">
+      <c r="A51" s="101" t="s">
         <v>192</v>
       </c>
       <c r="B51" s="4">
@@ -11101,7 +12053,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="109" t="s">
+      <c r="A52" s="101" t="s">
         <v>163</v>
       </c>
       <c r="B52" s="4">
@@ -11109,7 +12061,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="109" t="s">
+      <c r="A53" s="101" t="s">
         <v>164</v>
       </c>
       <c r="B53" s="4">
@@ -11117,7 +12069,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="109" t="s">
+      <c r="A54" s="101" t="s">
         <v>184</v>
       </c>
       <c r="B54" s="4">
@@ -11125,7 +12077,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="109" t="s">
+      <c r="A55" s="101" t="s">
         <v>206</v>
       </c>
       <c r="B55" s="4">
@@ -11133,7 +12085,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="109" t="s">
+      <c r="A56" s="101" t="s">
         <v>167</v>
       </c>
       <c r="B56" s="4">
@@ -11141,7 +12093,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="109" t="s">
+      <c r="A57" s="101" t="s">
         <v>169</v>
       </c>
       <c r="B57" s="4">
@@ -11149,7 +12101,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="109" t="s">
+      <c r="A58" s="101" t="s">
         <v>181</v>
       </c>
       <c r="B58" s="4">
@@ -11157,7 +12109,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="109" t="s">
+      <c r="A59" s="101" t="s">
         <v>176</v>
       </c>
       <c r="B59" s="4">
@@ -11165,7 +12117,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="109" t="s">
+      <c r="A60" s="101" t="s">
         <v>155</v>
       </c>
       <c r="B60" s="4">
@@ -11173,7 +12125,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="109" t="s">
+      <c r="A61" s="101" t="s">
         <v>194</v>
       </c>
       <c r="B61" s="4">
@@ -11181,7 +12133,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="109" t="s">
+      <c r="A62" s="101" t="s">
         <v>175</v>
       </c>
       <c r="B62" s="4">
@@ -11189,7 +12141,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="109" t="s">
+      <c r="A63" s="101" t="s">
         <v>215</v>
       </c>
       <c r="B63" s="4">
@@ -11197,7 +12149,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="109" t="s">
+      <c r="A64" s="101" t="s">
         <v>212</v>
       </c>
       <c r="B64" s="4">
@@ -11205,7 +12157,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="109" t="s">
+      <c r="A65" s="101" t="s">
         <v>202</v>
       </c>
       <c r="B65" s="4">
@@ -11213,7 +12165,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="109" t="s">
+      <c r="A66" s="101" t="s">
         <v>217</v>
       </c>
       <c r="B66" s="4">
@@ -11227,19 +12179,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Y65"/>
+  <dimension ref="A4:A8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R63" sqref="R63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="101"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="101"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="101"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="101"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="101"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Y66"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="17" width="13.5703125" customWidth="1"/>
-    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="18" width="8" customWidth="1"/>
     <col min="19" max="19" width="12.7109375" customWidth="1"/>
     <col min="20" max="20" width="9" customWidth="1"/>
     <col min="21" max="21" width="11.7109375" customWidth="1"/>
@@ -11251,76 +12234,76 @@
   <sheetData>
     <row r="1" spans="2:25" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="110" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="110" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="110" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="110" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="J2" s="80" t="s">
+      <c r="J2" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="110" t="s">
         <v>144</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="L2" s="110" t="s">
         <v>145</v>
       </c>
-      <c r="M2" s="80" t="s">
+      <c r="M2" s="110" t="s">
         <v>146</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="N2" s="110" t="s">
         <v>147</v>
       </c>
-      <c r="O2" s="81" t="s">
+      <c r="O2" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="P2" s="81" t="s">
+      <c r="P2" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="Q2" s="81" t="s">
+      <c r="Q2" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="R2" s="81" t="s">
+      <c r="R2" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="S2" s="89" t="s">
+      <c r="S2" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="89" t="s">
+      <c r="T2" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="89" t="s">
+      <c r="U2" s="87" t="s">
         <v>205</v>
       </c>
-      <c r="V2" s="89" t="s">
+      <c r="V2" s="87" t="s">
         <v>200</v>
       </c>
-      <c r="W2" s="89" t="s">
+      <c r="W2" s="87" t="s">
         <v>199</v>
       </c>
-      <c r="X2" s="89" t="s">
+      <c r="X2" s="87" t="s">
         <v>204</v>
       </c>
-      <c r="Y2" s="90" t="s">
+      <c r="Y2" s="88" t="s">
         <v>64</v>
       </c>
     </row>
@@ -11328,7 +12311,7 @@
       <c r="B3" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="99">
+      <c r="C3" s="97">
         <v>1</v>
       </c>
       <c r="D3" s="57">
@@ -11381,11 +12364,11 @@
         <v>15</v>
       </c>
       <c r="T3" s="54">
-        <f>(U3-S3)</f>
+        <f t="shared" ref="T3:T34" si="0">(U3-S3)</f>
         <v>0</v>
       </c>
       <c r="U3" s="54">
-        <f>COUNT(C3:R3)</f>
+        <f t="shared" ref="U3:U8" si="1">COUNT(C3:R3)</f>
         <v>15</v>
       </c>
       <c r="V3" s="69">
@@ -11398,8 +12381,8 @@
         <f>(Table1[[#This Row],[Missed Collection Days]]*25)+(Table1[[#This Row],[Missed War Matches]]*50)</f>
         <v>25</v>
       </c>
-      <c r="Y3" s="93">
-        <f>IFERROR(S3/U3,0)</f>
+      <c r="Y3" s="91">
+        <f t="shared" ref="Y3:Y34" si="2">IFERROR(S3/U3,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -11460,11 +12443,11 @@
         <v>13</v>
       </c>
       <c r="T4" s="8">
-        <f>(U4-S4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U4" s="8">
-        <f>COUNT(C4:R4)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="V4" s="8">
@@ -11478,7 +12461,7 @@
         <v>100</v>
       </c>
       <c r="Y4" s="55">
-        <f>IFERROR(S4/U4,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -11539,11 +12522,11 @@
         <v>4</v>
       </c>
       <c r="T5" s="56">
-        <f>(U5-S5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U5" s="56">
-        <f>COUNT(C5:R5)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="V5" s="56">
@@ -11557,7 +12540,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="63">
-        <f>IFERROR(S5/U5,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -11618,11 +12601,11 @@
         <v>1</v>
       </c>
       <c r="T6" s="59">
-        <f>(U6-S6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U6" s="59">
-        <f>COUNT(C6:R6)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V6" s="59">
@@ -11636,12 +12619,12 @@
         <v>0</v>
       </c>
       <c r="Y6" s="72">
-        <f>IFERROR(S6/U6,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="95" t="s">
         <v>210</v>
       </c>
       <c r="C7" s="66" t="s">
@@ -11697,11 +12680,11 @@
         <v>1</v>
       </c>
       <c r="T7" s="56">
-        <f>(U7-S7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U7" s="56">
-        <f>COUNT(C7:R7)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V7" s="56">
@@ -11714,13 +12697,13 @@
         <f>(Table1[[#This Row],[Missed Collection Days]]*25)+(Table1[[#This Row],[Missed War Matches]]*50)</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="96">
-        <f>IFERROR(S7/U7,0)</f>
+      <c r="Y7" s="94">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="89" t="s">
         <v>206</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -11776,11 +12759,11 @@
         <v>1</v>
       </c>
       <c r="T8" s="56">
-        <f>(U8-S8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U8" s="56">
-        <f>COUNT(C8:R8)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V8" s="8">
@@ -11794,7 +12777,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="55">
-        <f>IFERROR(S8/U8,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -11855,7 +12838,7 @@
         <v>15</v>
       </c>
       <c r="T9" s="8">
-        <f>(U9-S9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="U9" s="8">
@@ -11873,7 +12856,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="55">
-        <f>IFERROR(S9/U9,0)</f>
+        <f t="shared" si="2"/>
         <v>0.88235294117647056</v>
       </c>
     </row>
@@ -11934,7 +12917,7 @@
         <v>15</v>
       </c>
       <c r="T10" s="8">
-        <f>(U10-S10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="U10" s="8">
@@ -11952,7 +12935,7 @@
         <v>50</v>
       </c>
       <c r="Y10" s="55">
-        <f>IFERROR(S10/U10,0)</f>
+        <f t="shared" si="2"/>
         <v>0.88235294117647056</v>
       </c>
     </row>
@@ -12013,7 +12996,7 @@
         <v>14</v>
       </c>
       <c r="T11" s="8">
-        <f>(U11-S11)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="U11" s="8">
@@ -12031,7 +13014,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="55">
-        <f>IFERROR(S11/U11,0)</f>
+        <f t="shared" si="2"/>
         <v>0.875</v>
       </c>
     </row>
@@ -12092,7 +13075,7 @@
         <v>13</v>
       </c>
       <c r="T12" s="8">
-        <f>(U12-S12)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="U12" s="8">
@@ -12110,7 +13093,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="55">
-        <f>IFERROR(S12/U12,0)</f>
+        <f t="shared" si="2"/>
         <v>0.8666666666666667</v>
       </c>
     </row>
@@ -12171,7 +13154,7 @@
         <v>6</v>
       </c>
       <c r="T13" s="56">
-        <f>(U13-S13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U13" s="56">
@@ -12189,7 +13172,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="62">
-        <f>IFERROR(S13/U13,0)</f>
+        <f t="shared" si="2"/>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -12250,7 +13233,7 @@
         <v>17</v>
       </c>
       <c r="T14" s="8">
-        <f>(U14-S14)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="U14" s="8">
@@ -12268,7 +13251,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="55">
-        <f>IFERROR(S14/U14,0)</f>
+        <f t="shared" si="2"/>
         <v>0.85</v>
       </c>
     </row>
@@ -12329,7 +13312,7 @@
         <v>9</v>
       </c>
       <c r="T15" s="8">
-        <f>(U15-S15)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="U15" s="8">
@@ -12347,7 +13330,7 @@
         <v>75</v>
       </c>
       <c r="Y15" s="62">
-        <f>IFERROR(S15/U15,0)</f>
+        <f t="shared" si="2"/>
         <v>0.81818181818181823</v>
       </c>
     </row>
@@ -12408,7 +13391,7 @@
         <v>13</v>
       </c>
       <c r="T16" s="8">
-        <f>(U16-S16)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="U16" s="8">
@@ -12426,7 +13409,7 @@
         <v>0</v>
       </c>
       <c r="Y16" s="62">
-        <f>IFERROR(S16/U16,0)</f>
+        <f t="shared" si="2"/>
         <v>0.8125</v>
       </c>
     </row>
@@ -12487,7 +13470,7 @@
         <v>13</v>
       </c>
       <c r="T17" s="8">
-        <f>(U17-S17)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="U17" s="8">
@@ -12505,7 +13488,7 @@
         <v>25</v>
       </c>
       <c r="Y17" s="62">
-        <f>IFERROR(S17/U17,0)</f>
+        <f t="shared" si="2"/>
         <v>0.8125</v>
       </c>
     </row>
@@ -12566,7 +13549,7 @@
         <v>13</v>
       </c>
       <c r="T18" s="8">
-        <f>(U18-S18)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="U18" s="8">
@@ -12584,7 +13567,7 @@
         <v>25</v>
       </c>
       <c r="Y18" s="55">
-        <f>IFERROR(S18/U18,0)</f>
+        <f t="shared" si="2"/>
         <v>0.8125</v>
       </c>
     </row>
@@ -12645,7 +13628,7 @@
         <v>12</v>
       </c>
       <c r="T19" s="8">
-        <f>(U19-S19)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="U19" s="8">
@@ -12663,7 +13646,7 @@
         <v>0</v>
       </c>
       <c r="Y19" s="62">
-        <f>IFERROR(S19/U19,0)</f>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
     </row>
@@ -12724,7 +13707,7 @@
         <v>12</v>
       </c>
       <c r="T20" s="8">
-        <f>(U20-S20)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="U20" s="8">
@@ -12742,7 +13725,7 @@
         <v>0</v>
       </c>
       <c r="Y20" s="55">
-        <f>IFERROR(S20/U20,0)</f>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
     </row>
@@ -12798,12 +13781,12 @@
       <c r="R21" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="S21" s="87">
+      <c r="S21" s="85">
         <f>SUM(Table1[[#This Row],[01/01/2019]:[31/01/2019]])</f>
         <v>4</v>
       </c>
       <c r="T21" s="61">
-        <f>(U21-S21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U21" s="61">
@@ -12821,7 +13804,7 @@
         <v>0</v>
       </c>
       <c r="Y21" s="55">
-        <f>IFERROR(S21/U21,0)</f>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
     </row>
@@ -12882,7 +13865,7 @@
         <v>13</v>
       </c>
       <c r="T22" s="8">
-        <f>(U22-S22)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="U22" s="8">
@@ -12900,7 +13883,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="55">
-        <f>IFERROR(S22/U22,0)</f>
+        <f t="shared" si="2"/>
         <v>0.76470588235294112</v>
       </c>
     </row>
@@ -12961,7 +13944,7 @@
         <v>12</v>
       </c>
       <c r="T23" s="8">
-        <f>(U23-S23)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="U23" s="8">
@@ -12979,7 +13962,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="55">
-        <f>IFERROR(S23/U23,0)</f>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
     </row>
@@ -13040,7 +14023,7 @@
         <v>9</v>
       </c>
       <c r="T24" s="8">
-        <f>(U24-S24)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="U24" s="8">
@@ -13058,7 +14041,7 @@
         <v>25</v>
       </c>
       <c r="Y24" s="55">
-        <f>IFERROR(S24/U24,0)</f>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
     </row>
@@ -13119,7 +14102,7 @@
         <v>6</v>
       </c>
       <c r="T25" s="8">
-        <f>(U25-S25)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="U25" s="8">
@@ -13137,7 +14120,7 @@
         <v>250</v>
       </c>
       <c r="Y25" s="62">
-        <f>IFERROR(S25/U25,0)</f>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
     </row>
@@ -13198,7 +14181,7 @@
         <v>3</v>
       </c>
       <c r="T26" s="56">
-        <f>(U26-S26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U26" s="56">
@@ -13216,7 +14199,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="62">
-        <f>IFERROR(S26/U26,0)</f>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
     </row>
@@ -13277,7 +14260,7 @@
         <v>12</v>
       </c>
       <c r="T27" s="8">
-        <f>(U27-S27)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="U27" s="8">
@@ -13295,7 +14278,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="55">
-        <f>IFERROR(S27/U27,0)</f>
+        <f t="shared" si="2"/>
         <v>0.70588235294117652</v>
       </c>
     </row>
@@ -13356,7 +14339,7 @@
         <v>12</v>
       </c>
       <c r="T28" s="8">
-        <f>(U28-S28)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="U28" s="8">
@@ -13374,12 +14357,12 @@
         <v>25</v>
       </c>
       <c r="Y28" s="62">
-        <f>IFERROR(S28/U28,0)</f>
+        <f t="shared" si="2"/>
         <v>0.70588235294117652</v>
       </c>
     </row>
     <row r="29" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="110" t="s">
+      <c r="B29" s="102" t="s">
         <v>187</v>
       </c>
       <c r="C29" s="67">
@@ -13430,16 +14413,16 @@
       <c r="R29" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="S29" s="87">
+      <c r="S29" s="85">
         <f>SUM(Table1[[#This Row],[01/01/2019]:[31/01/2019]])</f>
         <v>7</v>
       </c>
       <c r="T29" s="61">
-        <f>(U29-S29)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="U29" s="61">
-        <f>COUNT(C29:R29)</f>
+        <f t="shared" ref="U29:U34" si="3">COUNT(C29:R29)</f>
         <v>10</v>
       </c>
       <c r="V29" s="8">
@@ -13453,7 +14436,7 @@
         <v>0</v>
       </c>
       <c r="Y29" s="55">
-        <f>IFERROR(S29/U29,0)</f>
+        <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
     </row>
@@ -13509,16 +14492,16 @@
       <c r="R30" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="S30" s="87">
+      <c r="S30" s="85">
         <f>SUM(Table1[[#This Row],[01/01/2019]:[31/01/2019]])</f>
         <v>7</v>
       </c>
       <c r="T30" s="61">
-        <f>(U30-S30)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="U30" s="64">
-        <f>COUNT(C30:R30)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="V30" s="8">
@@ -13532,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="62">
-        <f>IFERROR(S30/U30,0)</f>
+        <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
     </row>
@@ -13593,11 +14576,11 @@
         <v>11</v>
       </c>
       <c r="T31" s="8">
-        <f>(U31-S31)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="U31" s="8">
-        <f>COUNT(C31:R31)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="V31" s="8">
@@ -13611,12 +14594,12 @@
         <v>25</v>
       </c>
       <c r="Y31" s="55">
-        <f>IFERROR(S31/U31,0)</f>
+        <f t="shared" si="2"/>
         <v>0.6875</v>
       </c>
     </row>
     <row r="32" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="89" t="s">
         <v>163</v>
       </c>
       <c r="C32" s="66">
@@ -13672,11 +14655,11 @@
         <v>10</v>
       </c>
       <c r="T32" s="8">
-        <f>(U32-S32)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="U32" s="8">
-        <f>COUNT(C32:R32)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="V32" s="8">
@@ -13690,7 +14673,7 @@
         <v>0</v>
       </c>
       <c r="Y32" s="55">
-        <f>IFERROR(S32/U32,0)</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -13743,7 +14726,7 @@
       <c r="Q33" s="9">
         <v>1</v>
       </c>
-      <c r="R33" s="107">
+      <c r="R33" s="99">
         <v>0</v>
       </c>
       <c r="S33" s="70">
@@ -13751,11 +14734,11 @@
         <v>10</v>
       </c>
       <c r="T33" s="8">
-        <f>(U33-S33)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="U33" s="8">
-        <f>COUNT(C33:R33)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="V33" s="8">
@@ -13769,12 +14752,12 @@
         <v>150</v>
       </c>
       <c r="Y33" s="55">
-        <f>IFERROR(S33/U33,0)</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="34" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="89" t="s">
         <v>207</v>
       </c>
       <c r="C34" s="66" t="s">
@@ -13830,11 +14813,11 @@
         <v>2</v>
       </c>
       <c r="T34" s="56">
-        <f>(U34-S34)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U34" s="56">
-        <f>COUNT(C34:R34)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="V34" s="8">
@@ -13848,12 +14831,12 @@
         <v>0</v>
       </c>
       <c r="Y34" s="55">
-        <f>IFERROR(S34/U34,0)</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="35" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="97" t="s">
+      <c r="B35" s="95" t="s">
         <v>209</v>
       </c>
       <c r="C35" s="66" t="s">
@@ -13909,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="T35" s="56">
-        <f>(U35-S35)</f>
+        <f t="shared" ref="T35:T63" si="4">(U35-S35)</f>
         <v>1</v>
       </c>
       <c r="U35" s="56">
@@ -13926,8 +14909,8 @@
         <f>(Table1[[#This Row],[Missed Collection Days]]*25)+(Table1[[#This Row],[Missed War Matches]]*50)</f>
         <v>0</v>
       </c>
-      <c r="Y35" s="96">
-        <f>IFERROR(S35/U35,0)</f>
+      <c r="Y35" s="94">
+        <f t="shared" ref="Y35:Y63" si="5">IFERROR(S35/U35,0)</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -13988,7 +14971,7 @@
         <v>11</v>
       </c>
       <c r="T36" s="8">
-        <f>(U36-S36)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="U36" s="8">
@@ -14006,12 +14989,12 @@
         <v>0</v>
       </c>
       <c r="Y36" s="55">
-        <f>IFERROR(S36/U36,0)</f>
+        <f t="shared" si="5"/>
         <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="37" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="91" t="s">
+      <c r="B37" s="89" t="s">
         <v>176</v>
       </c>
       <c r="C37" s="66">
@@ -14067,7 +15050,7 @@
         <v>11</v>
       </c>
       <c r="T37" s="8">
-        <f>(U37-S37)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="U37" s="8">
@@ -14085,7 +15068,7 @@
         <v>0</v>
       </c>
       <c r="Y37" s="55">
-        <f>IFERROR(S37/U37,0)</f>
+        <f t="shared" si="5"/>
         <v>0.6470588235294118</v>
       </c>
     </row>
@@ -14146,7 +15129,7 @@
         <v>9</v>
       </c>
       <c r="T38" s="8">
-        <f>(U38-S38)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="U38" s="8">
@@ -14164,7 +15147,7 @@
         <v>100</v>
       </c>
       <c r="Y38" s="55">
-        <f>IFERROR(S38/U38,0)</f>
+        <f t="shared" si="5"/>
         <v>0.6428571428571429</v>
       </c>
     </row>
@@ -14225,7 +15208,7 @@
         <v>9</v>
       </c>
       <c r="T39" s="8">
-        <f>(U39-S39)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="U39" s="56">
@@ -14243,7 +15226,7 @@
         <v>100</v>
       </c>
       <c r="Y39" s="62">
-        <f>IFERROR(S39/U39,0)</f>
+        <f t="shared" si="5"/>
         <v>0.6428571428571429</v>
       </c>
     </row>
@@ -14304,7 +15287,7 @@
         <v>9</v>
       </c>
       <c r="T40" s="8">
-        <f>(U40-S40)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="U40" s="8">
@@ -14322,7 +15305,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="55">
-        <f>IFERROR(S40/U40,0)</f>
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
@@ -14383,7 +15366,7 @@
         <v>10</v>
       </c>
       <c r="T41" s="8">
-        <f>(U41-S41)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="U41" s="8">
@@ -14401,7 +15384,7 @@
         <v>0</v>
       </c>
       <c r="Y41" s="55">
-        <f>IFERROR(S41/U41,0)</f>
+        <f t="shared" si="5"/>
         <v>0.58823529411764708</v>
       </c>
     </row>
@@ -14462,7 +15445,7 @@
         <v>10</v>
       </c>
       <c r="T42" s="8">
-        <f>(U42-S42)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="U42" s="8">
@@ -14480,7 +15463,7 @@
         <v>50</v>
       </c>
       <c r="Y42" s="55">
-        <f>IFERROR(S42/U42,0)</f>
+        <f t="shared" si="5"/>
         <v>0.58823529411764708</v>
       </c>
     </row>
@@ -14541,7 +15524,7 @@
         <v>9</v>
       </c>
       <c r="T43" s="8">
-        <f>(U43-S43)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="U43" s="8">
@@ -14559,7 +15542,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="62">
-        <f>IFERROR(S43/U43,0)</f>
+        <f t="shared" si="5"/>
         <v>0.5625</v>
       </c>
     </row>
@@ -14620,7 +15603,7 @@
         <v>9</v>
       </c>
       <c r="T44" s="8">
-        <f>(U44-S44)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="U44" s="8">
@@ -14638,12 +15621,12 @@
         <v>50</v>
       </c>
       <c r="Y44" s="55">
-        <f>IFERROR(S44/U44,0)</f>
+        <f t="shared" si="5"/>
         <v>0.5625</v>
       </c>
     </row>
     <row r="45" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="91" t="s">
+      <c r="B45" s="89" t="s">
         <v>175</v>
       </c>
       <c r="C45" s="66">
@@ -14699,7 +15682,7 @@
         <v>9</v>
       </c>
       <c r="T45" s="8">
-        <f>(U45-S45)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="U45" s="8">
@@ -14717,7 +15700,7 @@
         <v>100</v>
       </c>
       <c r="Y45" s="55">
-        <f>IFERROR(S45/U45,0)</f>
+        <f t="shared" si="5"/>
         <v>0.5625</v>
       </c>
     </row>
@@ -14773,12 +15756,12 @@
       <c r="R46" s="60">
         <v>0</v>
       </c>
-      <c r="S46" s="87">
+      <c r="S46" s="85">
         <f>SUM(Table1[[#This Row],[01/01/2019]:[31/01/2019]])</f>
         <v>7</v>
       </c>
       <c r="T46" s="61">
-        <f>(U46-S46)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="U46" s="61">
@@ -14796,12 +15779,12 @@
         <v>0</v>
       </c>
       <c r="Y46" s="55">
-        <f>IFERROR(S46/U46,0)</f>
+        <f t="shared" si="5"/>
         <v>0.53846153846153844</v>
       </c>
     </row>
     <row r="47" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="92" t="s">
+      <c r="B47" s="90" t="s">
         <v>184</v>
       </c>
       <c r="C47" s="66">
@@ -14857,7 +15840,7 @@
         <v>8</v>
       </c>
       <c r="T47" s="8">
-        <f>(U47-S47)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="U47" s="8">
@@ -14875,7 +15858,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="62">
-        <f>IFERROR(S47/U47,0)</f>
+        <f t="shared" si="5"/>
         <v>0.53333333333333333</v>
       </c>
     </row>
@@ -14936,7 +15919,7 @@
         <v>9</v>
       </c>
       <c r="T48" s="8">
-        <f>(U48-S48)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="U48" s="8">
@@ -14954,12 +15937,12 @@
         <v>0</v>
       </c>
       <c r="Y48" s="55">
-        <f>IFERROR(S48/U48,0)</f>
+        <f t="shared" si="5"/>
         <v>0.52941176470588236</v>
       </c>
     </row>
     <row r="49" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="91" t="s">
+      <c r="B49" s="89" t="s">
         <v>190</v>
       </c>
       <c r="C49" s="66">
@@ -15015,7 +15998,7 @@
         <v>9</v>
       </c>
       <c r="T49" s="8">
-        <f>(U49-S49)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="U49" s="8">
@@ -15033,7 +16016,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="55">
-        <f>IFERROR(S49/U49,0)</f>
+        <f t="shared" si="5"/>
         <v>0.52941176470588236</v>
       </c>
     </row>
@@ -15094,7 +16077,7 @@
         <v>7</v>
       </c>
       <c r="T50" s="8">
-        <f>(U50-S50)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="U50" s="8">
@@ -15112,12 +16095,12 @@
         <v>275</v>
       </c>
       <c r="Y50" s="55">
-        <f>IFERROR(S50/U50,0)</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="97" t="s">
+      <c r="B51" s="95" t="s">
         <v>212</v>
       </c>
       <c r="C51" s="66" t="s">
@@ -15173,7 +16156,7 @@
         <v>1</v>
       </c>
       <c r="T51" s="56">
-        <f>(U51-S51)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U51" s="56">
@@ -15190,8 +16173,8 @@
         <f>(Table1[[#This Row],[Missed Collection Days]]*25)+(Table1[[#This Row],[Missed War Matches]]*50)</f>
         <v>0</v>
       </c>
-      <c r="Y51" s="96">
-        <f>IFERROR(S51/U51,0)</f>
+      <c r="Y51" s="94">
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -15247,12 +16230,12 @@
       <c r="R52" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="S52" s="87">
+      <c r="S52" s="85">
         <f>SUM(Table1[[#This Row],[01/01/2019]:[31/01/2019]])</f>
         <v>1</v>
       </c>
       <c r="T52" s="61">
-        <f>(U52-S52)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U52" s="61">
@@ -15270,7 +16253,7 @@
         <v>50</v>
       </c>
       <c r="Y52" s="72">
-        <f>IFERROR(S52/U52,0)</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -15326,12 +16309,12 @@
       <c r="R53" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="S53" s="87">
+      <c r="S53" s="85">
         <f>SUM(Table1[[#This Row],[01/01/2019]:[31/01/2019]])</f>
         <v>3</v>
       </c>
       <c r="T53" s="61">
-        <f>(U53-S53)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="U53" s="61">
@@ -15349,7 +16332,7 @@
         <v>50</v>
       </c>
       <c r="Y53" s="72">
-        <f>IFERROR(S53/U53,0)</f>
+        <f t="shared" si="5"/>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -15410,7 +16393,7 @@
         <v>6</v>
       </c>
       <c r="T54" s="8">
-        <f>(U54-S54)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="U54" s="8">
@@ -15428,7 +16411,7 @@
         <v>0</v>
       </c>
       <c r="Y54" s="55">
-        <f>IFERROR(S54/U54,0)</f>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
     </row>
@@ -15489,7 +16472,7 @@
         <v>6</v>
       </c>
       <c r="T55" s="8">
-        <f>(U55-S55)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="U55" s="8">
@@ -15507,7 +16490,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="55">
-        <f>IFERROR(S55/U55,0)</f>
+        <f t="shared" si="5"/>
         <v>0.375</v>
       </c>
     </row>
@@ -15563,16 +16546,16 @@
       <c r="R56" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="S56" s="87">
+      <c r="S56" s="85">
         <f>SUM(Table1[[#This Row],[01/01/2019]:[31/01/2019]])</f>
         <v>1</v>
       </c>
       <c r="T56" s="61">
-        <f>(U56-S56)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="U56" s="61">
-        <f>COUNT(C56:R56)</f>
+        <f t="shared" ref="U56:U63" si="6">COUNT(C56:R56)</f>
         <v>3</v>
       </c>
       <c r="V56" s="59">
@@ -15586,12 +16569,12 @@
         <v>50</v>
       </c>
       <c r="Y56" s="72">
-        <f>IFERROR(S56/U56,0)</f>
+        <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="57" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="97" t="s">
+      <c r="B57" s="95" t="s">
         <v>211</v>
       </c>
       <c r="C57" s="66" t="s">
@@ -15647,11 +16630,11 @@
         <v>0</v>
       </c>
       <c r="T57" s="56">
-        <f>(U57-S57)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="U57" s="56">
-        <f>COUNT(C57:R57)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="V57" s="8">
@@ -15664,8 +16647,8 @@
         <f>(Table1[[#This Row],[Missed Collection Days]]*25)+(Table1[[#This Row],[Missed War Matches]]*50)</f>
         <v>0</v>
       </c>
-      <c r="Y57" s="96">
-        <f>IFERROR(S57/U57,0)</f>
+      <c r="Y57" s="94">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15721,16 +16704,16 @@
       <c r="R58" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="S58" s="87">
+      <c r="S58" s="85">
         <f>SUM(Table1[[#This Row],[01/01/2019]:[31/01/2019]])</f>
         <v>0</v>
       </c>
       <c r="T58" s="61">
-        <f>(U58-S58)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="U58" s="64">
-        <f>COUNT(C58:R58)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="V58" s="59">
@@ -15744,7 +16727,7 @@
         <v>0</v>
       </c>
       <c r="Y58" s="72">
-        <f>IFERROR(S58/U58,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15805,11 +16788,11 @@
         <v>0</v>
       </c>
       <c r="T59" s="56">
-        <f>(U59-S59)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U59" s="56">
-        <f>COUNT(C59:R59)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V59" s="8">
@@ -15823,12 +16806,12 @@
         <v>0</v>
       </c>
       <c r="Y59" s="63">
-        <f>IFERROR(S59/U59,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="97" t="s">
+      <c r="B60" s="95" t="s">
         <v>214</v>
       </c>
       <c r="C60" s="66" t="s">
@@ -15884,11 +16867,11 @@
         <v>0</v>
       </c>
       <c r="T60" s="56">
-        <f>(U60-S60)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U60" s="56">
-        <f>COUNT(C60:R60)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V60" s="8">
@@ -15901,8 +16884,8 @@
         <f>(Table1[[#This Row],[Missed Collection Days]]*25)+(Table1[[#This Row],[Missed War Matches]]*50)</f>
         <v>0</v>
       </c>
-      <c r="Y60" s="96">
-        <f>IFERROR(S60/U60,0)</f>
+      <c r="Y60" s="94">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15958,16 +16941,16 @@
       <c r="R61" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="S61" s="87">
+      <c r="S61" s="85">
         <f>SUM(Table1[[#This Row],[01/01/2019]:[31/01/2019]])</f>
         <v>0</v>
       </c>
       <c r="T61" s="61">
-        <f>(U61-S61)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U61" s="61">
-        <f>COUNT(C61:R61)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V61" s="59">
@@ -15981,12 +16964,12 @@
         <v>50</v>
       </c>
       <c r="Y61" s="72">
-        <f>IFERROR(S61/U61,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="111" t="s">
+      <c r="B62" s="103" t="s">
         <v>213</v>
       </c>
       <c r="C62" s="67" t="s">
@@ -16037,16 +17020,16 @@
       <c r="R62" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="S62" s="87">
+      <c r="S62" s="85">
         <f>SUM(Table1[[#This Row],[01/01/2019]:[31/01/2019]])</f>
         <v>0</v>
       </c>
       <c r="T62" s="64">
-        <f>(U62-S62)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U62" s="64">
-        <f>COUNT(C62:R62)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="V62" s="8">
@@ -16055,91 +17038,91 @@
       <c r="W62" s="8">
         <v>1</v>
       </c>
-      <c r="X62" s="106">
+      <c r="X62" s="98">
         <f>(Table1[[#This Row],[Missed Collection Days]]*25)+(Table1[[#This Row],[Missed War Matches]]*50)</f>
         <v>50</v>
       </c>
-      <c r="Y62" s="96">
-        <f>IFERROR(S62/U62,0)</f>
+      <c r="Y62" s="94">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="117" t="s">
+      <c r="B63" s="109" t="s">
         <v>215</v>
       </c>
-      <c r="C63" s="112" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="E63" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="F63" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="G63" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="H63" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="I63" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="J63" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="K63" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="L63" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="M63" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="N63" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="O63" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="P63" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q63" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="R63" s="116">
-        <v>0</v>
-      </c>
-      <c r="S63" s="114">
+      <c r="C63" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="E63" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="G63" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="H63" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="I63" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="J63" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="K63" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="L63" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="M63" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="N63" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="O63" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="P63" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q63" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="R63" s="108">
+        <v>0</v>
+      </c>
+      <c r="S63" s="106">
         <f>SUM(Table1[[#This Row],[01/01/2019]:[31/01/2019]])</f>
         <v>0</v>
       </c>
-      <c r="T63" s="115">
-        <f>(U63-S63)</f>
-        <v>1</v>
-      </c>
-      <c r="U63" s="115">
-        <f>COUNT(C63:R63)</f>
-        <v>1</v>
-      </c>
-      <c r="V63" s="95">
-        <v>0</v>
-      </c>
-      <c r="W63" s="95">
-        <v>0</v>
-      </c>
-      <c r="X63" s="94">
+      <c r="T63" s="107">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U63" s="107">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V63" s="93">
+        <v>0</v>
+      </c>
+      <c r="W63" s="93">
+        <v>0</v>
+      </c>
+      <c r="X63" s="92">
         <f>(Table1[[#This Row],[Missed Collection Days]]*25)+(Table1[[#This Row],[Missed War Matches]]*50)</f>
         <v>0</v>
       </c>
-      <c r="Y63" s="98">
-        <f>IFERROR(S63/U63,0)</f>
+      <c r="Y63" s="96">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16147,119 +17130,195 @@
       <c r="B64" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="C64" s="82">
+      <c r="C64" s="80">
         <f>SUM(Table1[01/01/2019])/COUNT(Table1[01/01/2019])</f>
         <v>0.79069767441860461</v>
       </c>
-      <c r="D64" s="82">
+      <c r="D64" s="80">
         <f>SUM(Table1[03/01/2019])/COUNT(Table1[03/01/2019])</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="E64" s="82">
+      <c r="E64" s="80">
         <f>SUM(Table1[05/01/2019])/COUNT(Table1[05/01/2019])</f>
         <v>0.61538461538461542</v>
       </c>
-      <c r="F64" s="82">
+      <c r="F64" s="80">
         <f>SUM(Table1[07/01/2019])/COUNT(Table1[07/01/2019])</f>
         <v>0.73170731707317072</v>
       </c>
-      <c r="G64" s="82">
+      <c r="G64" s="80">
         <f>SUM(Table1[09/01/2019])/(COUNT(Table1[09/01/2019])+1)</f>
         <v>0.68888888888888888</v>
       </c>
-      <c r="H64" s="82">
+      <c r="H64" s="80">
         <f>SUM(Table1[11/01/2019])/(COUNT(Table1[11/01/2019])+1)</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="I64" s="82">
+      <c r="I64" s="80">
         <f>SUM(Table1[13/01/2019])/COUNT(Table1[13/01/2019])</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="J64" s="82">
+      <c r="J64" s="80">
         <f>SUM(Table1[15/01/2019])/COUNT(Table1[15/01/2019])</f>
         <v>0.65853658536585369</v>
       </c>
-      <c r="K64" s="82">
+      <c r="K64" s="80">
         <f>SUM(Table1[17/01/2019])/COUNT(Table1[17/01/2019])</f>
         <v>0.72499999999999998</v>
       </c>
-      <c r="L64" s="82">
+      <c r="L64" s="80">
         <f>SUM(Table1[19/01/2019])/(COUNT(Table1[19/01/2019]))</f>
         <v>0.78378378378378377</v>
       </c>
-      <c r="M64" s="82">
+      <c r="M64" s="80">
         <f>SUM(Table1[21/01/2019])/(COUNT(Table1[21/01/2019]))</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="N64" s="82">
+      <c r="N64" s="80">
         <f>SUM(Table1[23/01/2019])/(COUNT(Table1[23/01/2019]))</f>
         <v>0.64102564102564108</v>
       </c>
-      <c r="O64" s="82">
+      <c r="O64" s="80">
         <f>SUM(Table1[25/01/2019])/(COUNT(Table1[25/01/2019]))</f>
         <v>0.72499999999999998</v>
       </c>
-      <c r="P64" s="82">
+      <c r="P64" s="80">
         <f>SUM(Table1[27/01/2019])/(COUNT(Table1[27/01/2019]))</f>
         <v>0.63157894736842102</v>
       </c>
-      <c r="Q64" s="82">
+      <c r="Q64" s="80">
         <f>SUM(Table1[29/01/2019])/(COUNT(Table1[29/01/2019]))</f>
         <v>0.72499999999999998</v>
       </c>
-      <c r="R64" s="82">
+      <c r="R64" s="80">
         <f>SUM(Table1[31/01/2019])/(COUNT(Table1[31/01/2019]))</f>
         <v>0.6097560975609756</v>
       </c>
-      <c r="S64" s="83">
+      <c r="S64" s="81">
         <f>SUM(S3:S63)</f>
         <v>461</v>
       </c>
-      <c r="T64" s="84">
+      <c r="T64" s="82">
         <f>SUM(T3:T63)</f>
         <v>212</v>
       </c>
-      <c r="U64" s="84">
+      <c r="U64" s="82">
         <f>SUM(U3:U63)</f>
         <v>673</v>
       </c>
-      <c r="V64" s="84">
+      <c r="V64" s="82">
         <f>SUM(Table1[Missed Collection Days])</f>
         <v>48</v>
       </c>
-      <c r="W64" s="84">
+      <c r="W64" s="82">
         <f>SUM(Table1[Missed War Matches])</f>
         <v>10</v>
       </c>
-      <c r="X64" s="85">
+      <c r="X64" s="83">
         <f>AVERAGE(Table1[Points])</f>
         <v>27.868852459016395</v>
       </c>
-      <c r="Y64" s="86">
+      <c r="Y64" s="84">
         <f>AVERAGE(C64:H64)</f>
         <v>0.71079562231008619</v>
       </c>
     </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="41"/>
-      <c r="M65" s="41"/>
-      <c r="S65" s="71"/>
-      <c r="T65" s="41"/>
-      <c r="U65" s="41"/>
-      <c r="V65" s="41"/>
-      <c r="W65" s="41"/>
-      <c r="X65" s="41"/>
-      <c r="Y65" s="41"/>
+    <row r="65" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="112" t="s">
+        <v>219</v>
+      </c>
+      <c r="C65" s="114">
+        <f>COUNT(C3:C60)</f>
+        <v>42</v>
+      </c>
+      <c r="D65" s="114">
+        <f t="shared" ref="D65:R65" si="7">COUNT(D3:D60)</f>
+        <v>42</v>
+      </c>
+      <c r="E65" s="114">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="F65" s="114">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="G65" s="114">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+      <c r="H65" s="114">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+      <c r="I65" s="114">
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
+      <c r="J65" s="114">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="K65" s="114">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="L65" s="114">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="M65" s="114">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="N65" s="114">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="O65" s="114">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="P65" s="114">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="Q65" s="114">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="R65" s="114">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="S65" s="83"/>
+      <c r="T65" s="83"/>
+      <c r="U65" s="83"/>
+      <c r="V65" s="83"/>
+      <c r="W65" s="83"/>
+      <c r="X65" s="83"/>
+      <c r="Y65" s="113"/>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="41"/>
+      <c r="M66" s="41"/>
+      <c r="S66" s="71"/>
+      <c r="T66" s="41"/>
+      <c r="U66" s="41"/>
+      <c r="V66" s="41"/>
+      <c r="W66" s="41"/>
+      <c r="X66" s="41"/>
+      <c r="Y66" s="41"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="Y3:Y63">
@@ -16320,4 +17379,3852 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Y55"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="16" width="18.85546875" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="19.140625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:25" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="117" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="117" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="117" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="117" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2" s="117" t="s">
+        <v>227</v>
+      </c>
+      <c r="I2" s="117" t="s">
+        <v>228</v>
+      </c>
+      <c r="J2" s="117" t="s">
+        <v>229</v>
+      </c>
+      <c r="K2" s="117" t="s">
+        <v>230</v>
+      </c>
+      <c r="L2" s="117" t="s">
+        <v>231</v>
+      </c>
+      <c r="M2" s="117" t="s">
+        <v>232</v>
+      </c>
+      <c r="N2" s="117" t="s">
+        <v>233</v>
+      </c>
+      <c r="O2" s="117" t="s">
+        <v>234</v>
+      </c>
+      <c r="P2" s="117" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q2" s="117" t="s">
+        <v>220</v>
+      </c>
+      <c r="R2" s="117" t="s">
+        <v>221</v>
+      </c>
+      <c r="S2" s="118" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="118" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="118" t="s">
+        <v>205</v>
+      </c>
+      <c r="V2" s="118" t="s">
+        <v>200</v>
+      </c>
+      <c r="W2" s="118" t="s">
+        <v>199</v>
+      </c>
+      <c r="X2" s="118" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y2" s="119" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="68">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>12</v>
+      </c>
+      <c r="T3" s="54">
+        <f>(U3-S3)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="54">
+        <f>COUNT(C3:R3)+1</f>
+        <v>12</v>
+      </c>
+      <c r="V3" s="8">
+        <v>0</v>
+      </c>
+      <c r="W3" s="54">
+        <v>0</v>
+      </c>
+      <c r="X3" s="54">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="91">
+        <f>IFERROR(S3/U3,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>11</v>
+      </c>
+      <c r="T4" s="8">
+        <f>(U4-S4)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="8">
+        <f>COUNT(C4:R4)</f>
+        <v>11</v>
+      </c>
+      <c r="V4" s="8">
+        <v>0</v>
+      </c>
+      <c r="W4" s="8">
+        <v>0</v>
+      </c>
+      <c r="X4" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="55">
+        <f>IFERROR(S4/U4,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>11</v>
+      </c>
+      <c r="T5" s="8">
+        <f>(U5-S5)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="8">
+        <f>COUNT(C5:R5)</f>
+        <v>11</v>
+      </c>
+      <c r="V5" s="56">
+        <v>0</v>
+      </c>
+      <c r="W5" s="8">
+        <v>0</v>
+      </c>
+      <c r="X5" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="62">
+        <f>IFERROR(S5/U5,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="40">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>7</v>
+      </c>
+      <c r="T6" s="8">
+        <f>(U6-S6)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="8">
+        <f>COUNT(C6:R6)</f>
+        <v>7</v>
+      </c>
+      <c r="V6" s="56">
+        <v>2</v>
+      </c>
+      <c r="W6" s="8">
+        <v>0</v>
+      </c>
+      <c r="X6" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>50</v>
+      </c>
+      <c r="Y6" s="62">
+        <f>IFERROR(S6/U6,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="125" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>3</v>
+      </c>
+      <c r="T7" s="56">
+        <f>(U7-S7)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="8">
+        <f>COUNT(C7:R7)</f>
+        <v>3</v>
+      </c>
+      <c r="V7" s="56">
+        <v>0</v>
+      </c>
+      <c r="W7" s="8">
+        <v>0</v>
+      </c>
+      <c r="X7" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="63">
+        <f>IFERROR(S7/U7,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="74" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
+        <v>2</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1</v>
+      </c>
+      <c r="L8" s="9">
+        <v>1</v>
+      </c>
+      <c r="M8" s="9">
+        <v>1</v>
+      </c>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>12</v>
+      </c>
+      <c r="T8" s="8">
+        <f>(U8-S8)</f>
+        <v>1</v>
+      </c>
+      <c r="U8" s="8">
+        <f>COUNT(C8:R8)+2</f>
+        <v>13</v>
+      </c>
+      <c r="V8" s="56">
+        <v>0</v>
+      </c>
+      <c r="W8" s="8">
+        <v>0</v>
+      </c>
+      <c r="X8" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="55">
+        <f>IFERROR(S8/U8,0)</f>
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="89" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="40">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>9</v>
+      </c>
+      <c r="T9" s="8">
+        <f>(U9-S9)</f>
+        <v>1</v>
+      </c>
+      <c r="U9" s="8">
+        <f>COUNT(C9:R9)</f>
+        <v>10</v>
+      </c>
+      <c r="V9" s="8">
+        <v>2</v>
+      </c>
+      <c r="W9" s="8">
+        <v>0</v>
+      </c>
+      <c r="X9" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>50</v>
+      </c>
+      <c r="Y9" s="55">
+        <f>IFERROR(S9/U9,0)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9">
+        <v>2</v>
+      </c>
+      <c r="K10" s="9">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>1</v>
+      </c>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>8</v>
+      </c>
+      <c r="T10" s="56">
+        <f>(U10-S10)</f>
+        <v>1</v>
+      </c>
+      <c r="U10" s="56">
+        <f>COUNT(C10:Q10)+1</f>
+        <v>9</v>
+      </c>
+      <c r="V10" s="56">
+        <v>0</v>
+      </c>
+      <c r="W10" s="8">
+        <v>0</v>
+      </c>
+      <c r="X10" s="56">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="55">
+        <f>IFERROR(S10/U10,0)</f>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1</v>
+      </c>
+      <c r="I11" s="40">
+        <v>0</v>
+      </c>
+      <c r="J11" s="40">
+        <v>1</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="9">
+        <v>1</v>
+      </c>
+      <c r="M11" s="9">
+        <v>1</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>8</v>
+      </c>
+      <c r="T11" s="8">
+        <f>(U11-S11)</f>
+        <v>1</v>
+      </c>
+      <c r="U11" s="8">
+        <f>COUNT(C11:R11)</f>
+        <v>9</v>
+      </c>
+      <c r="V11" s="56">
+        <v>1</v>
+      </c>
+      <c r="W11" s="8">
+        <v>1</v>
+      </c>
+      <c r="X11" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>125</v>
+      </c>
+      <c r="Y11" s="55">
+        <f>IFERROR(S11/U11,0)</f>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="90" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9">
+        <v>1</v>
+      </c>
+      <c r="K12" s="9">
+        <v>1</v>
+      </c>
+      <c r="L12" s="9">
+        <v>1</v>
+      </c>
+      <c r="M12" s="9">
+        <v>1</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>6</v>
+      </c>
+      <c r="T12" s="8">
+        <f>(U12-S12)</f>
+        <v>1</v>
+      </c>
+      <c r="U12" s="8">
+        <f>COUNT(C12:R12)</f>
+        <v>7</v>
+      </c>
+      <c r="V12" s="56">
+        <v>0</v>
+      </c>
+      <c r="W12" s="8">
+        <v>0</v>
+      </c>
+      <c r="X12" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="62">
+        <f>IFERROR(S12/U12,0)</f>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9">
+        <v>1</v>
+      </c>
+      <c r="K13" s="9">
+        <v>1</v>
+      </c>
+      <c r="L13" s="9">
+        <v>1</v>
+      </c>
+      <c r="M13" s="9">
+        <v>1</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>9</v>
+      </c>
+      <c r="T13" s="8">
+        <f>(U13-S13)</f>
+        <v>2</v>
+      </c>
+      <c r="U13" s="8">
+        <f>COUNT(C13:R13)</f>
+        <v>11</v>
+      </c>
+      <c r="V13" s="8">
+        <v>0</v>
+      </c>
+      <c r="W13" s="8">
+        <v>0</v>
+      </c>
+      <c r="X13" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="55">
+        <f>IFERROR(S13/U13,0)</f>
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9">
+        <v>1</v>
+      </c>
+      <c r="K14" s="9">
+        <v>1</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>1</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>9</v>
+      </c>
+      <c r="T14" s="8">
+        <f>(U14-S14)</f>
+        <v>2</v>
+      </c>
+      <c r="U14" s="8">
+        <f>COUNT(C14:R14)+1</f>
+        <v>11</v>
+      </c>
+      <c r="V14" s="8">
+        <v>0</v>
+      </c>
+      <c r="W14" s="8">
+        <v>0</v>
+      </c>
+      <c r="X14" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="55">
+        <f>IFERROR(S14/U14,0)</f>
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="95" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1</v>
+      </c>
+      <c r="J15" s="9">
+        <v>1</v>
+      </c>
+      <c r="K15" s="9">
+        <v>1</v>
+      </c>
+      <c r="L15" s="9">
+        <v>1</v>
+      </c>
+      <c r="M15" s="9">
+        <v>1</v>
+      </c>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>9</v>
+      </c>
+      <c r="T15" s="56">
+        <f>(U15-S15)</f>
+        <v>2</v>
+      </c>
+      <c r="U15" s="8">
+        <f>COUNT(C15:R15)</f>
+        <v>11</v>
+      </c>
+      <c r="V15" s="8">
+        <v>0</v>
+      </c>
+      <c r="W15" s="8">
+        <v>0</v>
+      </c>
+      <c r="X15" s="56">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="94">
+        <f>IFERROR(S15/U15,0)</f>
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="40">
+        <v>1</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>1</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>1</v>
+      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>9</v>
+      </c>
+      <c r="T16" s="8">
+        <f>(U16-S16)</f>
+        <v>2</v>
+      </c>
+      <c r="U16" s="8">
+        <f>COUNT(C16:R16)</f>
+        <v>11</v>
+      </c>
+      <c r="V16" s="8">
+        <v>2</v>
+      </c>
+      <c r="W16" s="8">
+        <v>0</v>
+      </c>
+      <c r="X16" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>50</v>
+      </c>
+      <c r="Y16" s="55">
+        <f>IFERROR(S16/U16,0)</f>
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="40">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1</v>
+      </c>
+      <c r="I17" s="40">
+        <v>0</v>
+      </c>
+      <c r="J17" s="40">
+        <v>1</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1</v>
+      </c>
+      <c r="L17" s="9">
+        <v>1</v>
+      </c>
+      <c r="M17" s="9">
+        <v>1</v>
+      </c>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>9</v>
+      </c>
+      <c r="T17" s="8">
+        <f>(U17-S17)</f>
+        <v>2</v>
+      </c>
+      <c r="U17" s="8">
+        <f>COUNT(C17:R17)</f>
+        <v>11</v>
+      </c>
+      <c r="V17" s="8">
+        <v>6</v>
+      </c>
+      <c r="W17" s="8">
+        <v>1</v>
+      </c>
+      <c r="X17" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>250</v>
+      </c>
+      <c r="Y17" s="55">
+        <f>IFERROR(S17/U17,0)</f>
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="9">
+        <v>1</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>1</v>
+      </c>
+      <c r="M18" s="9">
+        <v>1</v>
+      </c>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>8</v>
+      </c>
+      <c r="T18" s="8">
+        <f>(U18-S18)</f>
+        <v>2</v>
+      </c>
+      <c r="U18" s="8">
+        <f>COUNT(C18:R18)</f>
+        <v>10</v>
+      </c>
+      <c r="V18" s="8">
+        <v>0</v>
+      </c>
+      <c r="W18" s="8">
+        <v>0</v>
+      </c>
+      <c r="X18" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="55">
+        <f>IFERROR(S18/U18,0)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9">
+        <v>1</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="9">
+        <v>1</v>
+      </c>
+      <c r="K19" s="9">
+        <v>1</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <v>1</v>
+      </c>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>8</v>
+      </c>
+      <c r="T19" s="8">
+        <f>(U19-S19)</f>
+        <v>2</v>
+      </c>
+      <c r="U19" s="8">
+        <f>COUNT(C19:R19)</f>
+        <v>10</v>
+      </c>
+      <c r="V19" s="8">
+        <v>0</v>
+      </c>
+      <c r="W19" s="8">
+        <v>0</v>
+      </c>
+      <c r="X19" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="62">
+        <f>IFERROR(S19/U19,0)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1</v>
+      </c>
+      <c r="J20" s="9">
+        <v>1</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>1</v>
+      </c>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>8</v>
+      </c>
+      <c r="T20" s="8">
+        <f>(U20-S20)</f>
+        <v>2</v>
+      </c>
+      <c r="U20" s="8">
+        <f>COUNT(C20:R20)</f>
+        <v>10</v>
+      </c>
+      <c r="V20" s="8">
+        <v>0</v>
+      </c>
+      <c r="W20" s="8">
+        <v>0</v>
+      </c>
+      <c r="X20" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="55">
+        <f>IFERROR(S20/U20,0)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>1</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="9">
+        <v>1</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="40">
+        <v>1</v>
+      </c>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>8</v>
+      </c>
+      <c r="T21" s="8">
+        <f>(U21-S21)</f>
+        <v>2</v>
+      </c>
+      <c r="U21" s="8">
+        <f>COUNT(C21:R21)</f>
+        <v>10</v>
+      </c>
+      <c r="V21" s="8">
+        <v>1</v>
+      </c>
+      <c r="W21" s="8">
+        <v>0</v>
+      </c>
+      <c r="X21" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>25</v>
+      </c>
+      <c r="Y21" s="55">
+        <f>IFERROR(S21/U21,0)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="123" t="s">
+        <v>237</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="9">
+        <v>2</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>4</v>
+      </c>
+      <c r="T22" s="56">
+        <f>(U22-S22)</f>
+        <v>1</v>
+      </c>
+      <c r="U22" s="56">
+        <f>COUNT(C22:Q22)+1</f>
+        <v>5</v>
+      </c>
+      <c r="V22" s="8">
+        <v>0</v>
+      </c>
+      <c r="W22" s="8">
+        <v>0</v>
+      </c>
+      <c r="X22" s="56">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="115">
+        <f>IFERROR(S22/U22,0)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="9">
+        <v>1</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="9">
+        <v>1</v>
+      </c>
+      <c r="L23" s="9">
+        <v>1</v>
+      </c>
+      <c r="M23" s="9">
+        <v>1</v>
+      </c>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>7</v>
+      </c>
+      <c r="T23" s="8">
+        <f>(U23-S23)</f>
+        <v>2</v>
+      </c>
+      <c r="U23" s="8">
+        <f>COUNT(C23:R23)</f>
+        <v>9</v>
+      </c>
+      <c r="V23" s="56">
+        <v>0</v>
+      </c>
+      <c r="W23" s="8">
+        <v>0</v>
+      </c>
+      <c r="X23" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="55">
+        <f>IFERROR(S23/U23,0)</f>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" s="9">
+        <v>1</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9">
+        <v>1</v>
+      </c>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>7</v>
+      </c>
+      <c r="T24" s="8">
+        <f>(U24-S24)</f>
+        <v>2</v>
+      </c>
+      <c r="U24" s="8">
+        <f>COUNT(C24:R24)</f>
+        <v>9</v>
+      </c>
+      <c r="V24" s="56">
+        <v>0</v>
+      </c>
+      <c r="W24" s="8">
+        <v>0</v>
+      </c>
+      <c r="X24" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="55">
+        <f>IFERROR(S24/U24,0)</f>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1</v>
+      </c>
+      <c r="H25" s="9">
+        <v>1</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>1</v>
+      </c>
+      <c r="K25" s="9">
+        <v>1</v>
+      </c>
+      <c r="L25" s="9">
+        <v>1</v>
+      </c>
+      <c r="M25" s="9">
+        <v>2</v>
+      </c>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>10</v>
+      </c>
+      <c r="T25" s="8">
+        <f>(U25-S25)</f>
+        <v>3</v>
+      </c>
+      <c r="U25" s="8">
+        <f>COUNT(C25:R25)+2</f>
+        <v>13</v>
+      </c>
+      <c r="V25" s="8">
+        <v>0</v>
+      </c>
+      <c r="W25" s="8">
+        <v>0</v>
+      </c>
+      <c r="X25" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="55">
+        <f>IFERROR(S25/U25,0)</f>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="89" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="9">
+        <v>2</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <v>1</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1</v>
+      </c>
+      <c r="L26" s="9">
+        <v>1</v>
+      </c>
+      <c r="M26" s="9">
+        <v>1</v>
+      </c>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>10</v>
+      </c>
+      <c r="T26" s="8">
+        <f>(U26-S26)</f>
+        <v>3</v>
+      </c>
+      <c r="U26" s="8">
+        <f>COUNT(C26:R26)+2</f>
+        <v>13</v>
+      </c>
+      <c r="V26" s="8">
+        <v>0</v>
+      </c>
+      <c r="W26" s="8">
+        <v>0</v>
+      </c>
+      <c r="X26" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="55">
+        <f>IFERROR(S26/U26,0)</f>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1</v>
+      </c>
+      <c r="H27" s="9">
+        <v>1</v>
+      </c>
+      <c r="I27" s="9">
+        <v>1</v>
+      </c>
+      <c r="J27" s="9">
+        <v>2</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9">
+        <v>0</v>
+      </c>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>9</v>
+      </c>
+      <c r="T27" s="8">
+        <f>(U27-S27)</f>
+        <v>3</v>
+      </c>
+      <c r="U27" s="8">
+        <f>COUNT(C27:R27)+1</f>
+        <v>12</v>
+      </c>
+      <c r="V27" s="56">
+        <v>0</v>
+      </c>
+      <c r="W27" s="8">
+        <v>0</v>
+      </c>
+      <c r="X27" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="55">
+        <f>IFERROR(S27/U27,0)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" s="9">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9">
+        <v>2</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9">
+        <v>1</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
+        <v>1</v>
+      </c>
+      <c r="J28" s="9">
+        <v>1</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9">
+        <v>1</v>
+      </c>
+      <c r="M28" s="9">
+        <v>0</v>
+      </c>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>9</v>
+      </c>
+      <c r="T28" s="8">
+        <f>(U28-S28)</f>
+        <v>3</v>
+      </c>
+      <c r="U28" s="8">
+        <f>COUNT(C28:R28)+1</f>
+        <v>12</v>
+      </c>
+      <c r="V28" s="8">
+        <v>0</v>
+      </c>
+      <c r="W28" s="8">
+        <v>0</v>
+      </c>
+      <c r="X28" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="55">
+        <f>IFERROR(S28/U28,0)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="121" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="40">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="40">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1</v>
+      </c>
+      <c r="L29" s="40">
+        <v>1</v>
+      </c>
+      <c r="M29" s="9">
+        <v>1</v>
+      </c>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>6</v>
+      </c>
+      <c r="T29" s="56">
+        <f>(U29-S29)</f>
+        <v>2</v>
+      </c>
+      <c r="U29" s="56">
+        <f>COUNT(C29:Q29)</f>
+        <v>8</v>
+      </c>
+      <c r="V29" s="56">
+        <v>3</v>
+      </c>
+      <c r="W29" s="8">
+        <v>1</v>
+      </c>
+      <c r="X29" s="56">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>175</v>
+      </c>
+      <c r="Y29" s="120">
+        <f>IFERROR(S29/U29,0)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1</v>
+      </c>
+      <c r="G30" s="9">
+        <v>2</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9">
+        <v>1</v>
+      </c>
+      <c r="J30" s="9">
+        <v>1</v>
+      </c>
+      <c r="K30" s="9">
+        <v>1</v>
+      </c>
+      <c r="L30" s="9">
+        <v>1</v>
+      </c>
+      <c r="M30" s="9">
+        <v>0</v>
+      </c>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>8</v>
+      </c>
+      <c r="T30" s="8">
+        <f>(U30-S30)</f>
+        <v>3</v>
+      </c>
+      <c r="U30" s="8">
+        <f>COUNT(C30:R30)+1</f>
+        <v>11</v>
+      </c>
+      <c r="V30" s="8">
+        <v>0</v>
+      </c>
+      <c r="W30" s="8">
+        <v>0</v>
+      </c>
+      <c r="X30" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="55">
+        <f>IFERROR(S30/U30,0)</f>
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="89" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1</v>
+      </c>
+      <c r="I31" s="9">
+        <v>1</v>
+      </c>
+      <c r="J31" s="9">
+        <v>1</v>
+      </c>
+      <c r="K31" s="9">
+        <v>1</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
+        <v>1</v>
+      </c>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>8</v>
+      </c>
+      <c r="T31" s="8">
+        <f>(U31-S31)</f>
+        <v>3</v>
+      </c>
+      <c r="U31" s="8">
+        <f>COUNT(C31:R31)</f>
+        <v>11</v>
+      </c>
+      <c r="V31" s="56">
+        <v>0</v>
+      </c>
+      <c r="W31" s="8">
+        <v>0</v>
+      </c>
+      <c r="X31" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="55">
+        <f>IFERROR(S31/U31,0)</f>
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
+        <v>1</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0</v>
+      </c>
+      <c r="I32" s="9">
+        <v>1</v>
+      </c>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
+      <c r="K32" s="9">
+        <v>1</v>
+      </c>
+      <c r="L32" s="9">
+        <v>1</v>
+      </c>
+      <c r="M32" s="9">
+        <v>1</v>
+      </c>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>8</v>
+      </c>
+      <c r="T32" s="8">
+        <f>(U32-S32)</f>
+        <v>3</v>
+      </c>
+      <c r="U32" s="8">
+        <f>COUNT(C32:R32)</f>
+        <v>11</v>
+      </c>
+      <c r="V32" s="56">
+        <v>0</v>
+      </c>
+      <c r="W32" s="8">
+        <v>0</v>
+      </c>
+      <c r="X32" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="55">
+        <f>IFERROR(S32/U32,0)</f>
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="9">
+        <v>1</v>
+      </c>
+      <c r="D33" s="9">
+        <v>1</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
+        <v>1</v>
+      </c>
+      <c r="H33" s="9">
+        <v>1</v>
+      </c>
+      <c r="I33" s="9">
+        <v>1</v>
+      </c>
+      <c r="J33" s="9">
+        <v>1</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9">
+        <v>1</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0</v>
+      </c>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>8</v>
+      </c>
+      <c r="T33" s="8">
+        <f>(U33-S33)</f>
+        <v>3</v>
+      </c>
+      <c r="U33" s="8">
+        <f>COUNT(C33:R33)</f>
+        <v>11</v>
+      </c>
+      <c r="V33" s="8">
+        <v>0</v>
+      </c>
+      <c r="W33" s="8">
+        <v>0</v>
+      </c>
+      <c r="X33" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="55">
+        <f>IFERROR(S33/U33,0)</f>
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" s="9">
+        <v>1</v>
+      </c>
+      <c r="D34" s="9">
+        <v>2</v>
+      </c>
+      <c r="E34" s="9">
+        <v>1</v>
+      </c>
+      <c r="F34" s="9">
+        <v>0</v>
+      </c>
+      <c r="G34" s="9">
+        <v>2</v>
+      </c>
+      <c r="H34" s="9">
+        <v>1</v>
+      </c>
+      <c r="I34" s="9">
+        <v>1</v>
+      </c>
+      <c r="J34" s="9">
+        <v>0</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L34" s="9">
+        <v>0</v>
+      </c>
+      <c r="M34" s="40">
+        <v>0</v>
+      </c>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>8</v>
+      </c>
+      <c r="T34" s="8">
+        <f>(U34-S34)</f>
+        <v>3</v>
+      </c>
+      <c r="U34" s="8">
+        <f>COUNT(C34:R34)+1</f>
+        <v>11</v>
+      </c>
+      <c r="V34" s="8">
+        <v>1</v>
+      </c>
+      <c r="W34" s="8">
+        <v>0</v>
+      </c>
+      <c r="X34" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>25</v>
+      </c>
+      <c r="Y34" s="55">
+        <f>IFERROR(S34/U34,0)</f>
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="9">
+        <v>1</v>
+      </c>
+      <c r="D35" s="9">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+      <c r="G35" s="9">
+        <v>1</v>
+      </c>
+      <c r="H35" s="40">
+        <v>1</v>
+      </c>
+      <c r="I35" s="9">
+        <v>0</v>
+      </c>
+      <c r="J35" s="9">
+        <v>1</v>
+      </c>
+      <c r="K35" s="9">
+        <v>1</v>
+      </c>
+      <c r="L35" s="9">
+        <v>1</v>
+      </c>
+      <c r="M35" s="9">
+        <v>0</v>
+      </c>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>8</v>
+      </c>
+      <c r="T35" s="8">
+        <f>(U35-S35)</f>
+        <v>3</v>
+      </c>
+      <c r="U35" s="8">
+        <f>COUNT(C35:R35)</f>
+        <v>11</v>
+      </c>
+      <c r="V35" s="8">
+        <v>1</v>
+      </c>
+      <c r="W35" s="8">
+        <v>0</v>
+      </c>
+      <c r="X35" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>25</v>
+      </c>
+      <c r="Y35" s="55">
+        <f>IFERROR(S35/U35,0)</f>
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="C36" s="9">
+        <v>0</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1</v>
+      </c>
+      <c r="G36" s="9">
+        <v>1</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="9">
+        <v>0</v>
+      </c>
+      <c r="J36" s="9">
+        <v>1</v>
+      </c>
+      <c r="K36" s="9">
+        <v>1</v>
+      </c>
+      <c r="L36" s="40">
+        <v>1</v>
+      </c>
+      <c r="M36" s="9">
+        <v>1</v>
+      </c>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>7</v>
+      </c>
+      <c r="T36" s="8">
+        <f>(U36-S36)</f>
+        <v>3</v>
+      </c>
+      <c r="U36" s="8">
+        <f>COUNT(C36:R36)</f>
+        <v>10</v>
+      </c>
+      <c r="V36" s="8">
+        <v>1</v>
+      </c>
+      <c r="W36" s="8">
+        <v>0</v>
+      </c>
+      <c r="X36" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>25</v>
+      </c>
+      <c r="Y36" s="55">
+        <f>IFERROR(S36/U36,0)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="9">
+        <v>1</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="9">
+        <v>1</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0</v>
+      </c>
+      <c r="G37" s="9">
+        <v>1</v>
+      </c>
+      <c r="H37" s="9">
+        <v>1</v>
+      </c>
+      <c r="I37" s="9">
+        <v>1</v>
+      </c>
+      <c r="J37" s="9">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0</v>
+      </c>
+      <c r="L37" s="9">
+        <v>1</v>
+      </c>
+      <c r="M37" s="9">
+        <v>1</v>
+      </c>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>7</v>
+      </c>
+      <c r="T37" s="8">
+        <f>(U37-S37)</f>
+        <v>3</v>
+      </c>
+      <c r="U37" s="8">
+        <f>COUNT(C37:R37)</f>
+        <v>10</v>
+      </c>
+      <c r="V37" s="56">
+        <v>0</v>
+      </c>
+      <c r="W37" s="8">
+        <v>0</v>
+      </c>
+      <c r="X37" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="62">
+        <f>IFERROR(S37/U37,0)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="128" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H38" s="9">
+        <v>1</v>
+      </c>
+      <c r="I38" s="9">
+        <v>0</v>
+      </c>
+      <c r="J38" s="9">
+        <v>1</v>
+      </c>
+      <c r="K38" s="9">
+        <v>0</v>
+      </c>
+      <c r="L38" s="9">
+        <v>1</v>
+      </c>
+      <c r="M38" s="9">
+        <v>1</v>
+      </c>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>4</v>
+      </c>
+      <c r="T38" s="56">
+        <f>(U38-S38)</f>
+        <v>2</v>
+      </c>
+      <c r="U38" s="56">
+        <f>COUNT(C38:Q38)</f>
+        <v>6</v>
+      </c>
+      <c r="V38" s="56">
+        <v>0</v>
+      </c>
+      <c r="W38" s="8">
+        <v>0</v>
+      </c>
+      <c r="X38" s="56">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="124">
+        <f>IFERROR(S38/U38,0)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="90" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="9">
+        <v>0</v>
+      </c>
+      <c r="D39" s="9">
+        <v>1</v>
+      </c>
+      <c r="E39" s="9">
+        <v>1</v>
+      </c>
+      <c r="F39" s="9">
+        <v>1</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="9">
+        <v>0</v>
+      </c>
+      <c r="I39" s="9">
+        <v>0</v>
+      </c>
+      <c r="J39" s="9">
+        <v>1</v>
+      </c>
+      <c r="K39" s="9">
+        <v>0</v>
+      </c>
+      <c r="L39" s="9">
+        <v>1</v>
+      </c>
+      <c r="M39" s="9">
+        <v>1</v>
+      </c>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>6</v>
+      </c>
+      <c r="T39" s="8">
+        <f>(U39-S39)</f>
+        <v>5</v>
+      </c>
+      <c r="U39" s="8">
+        <f>COUNT(C39:R39)</f>
+        <v>11</v>
+      </c>
+      <c r="V39" s="8">
+        <v>0</v>
+      </c>
+      <c r="W39" s="8">
+        <v>0</v>
+      </c>
+      <c r="X39" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="62">
+        <f>IFERROR(S39/U39,0)</f>
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="75" t="s">
+        <v>201</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="9">
+        <v>1</v>
+      </c>
+      <c r="E40" s="9">
+        <v>1</v>
+      </c>
+      <c r="F40" s="9">
+        <v>1</v>
+      </c>
+      <c r="G40" s="9">
+        <v>1</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0</v>
+      </c>
+      <c r="I40" s="9">
+        <v>0</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K40" s="9">
+        <v>0</v>
+      </c>
+      <c r="L40" s="9">
+        <v>1</v>
+      </c>
+      <c r="M40" s="9">
+        <v>1</v>
+      </c>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>6</v>
+      </c>
+      <c r="T40" s="56">
+        <f>(U40-S40)</f>
+        <v>5</v>
+      </c>
+      <c r="U40" s="8">
+        <f>COUNT(C40:R40)+2</f>
+        <v>11</v>
+      </c>
+      <c r="V40" s="56">
+        <v>0</v>
+      </c>
+      <c r="W40" s="8">
+        <v>0</v>
+      </c>
+      <c r="X40" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="62">
+        <f>IFERROR(S40/U40,0)</f>
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="95" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" s="9">
+        <v>1</v>
+      </c>
+      <c r="D41" s="9">
+        <v>1</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0</v>
+      </c>
+      <c r="F41" s="9">
+        <v>0</v>
+      </c>
+      <c r="G41" s="9">
+        <v>1</v>
+      </c>
+      <c r="H41" s="9">
+        <v>0</v>
+      </c>
+      <c r="I41" s="9">
+        <v>0</v>
+      </c>
+      <c r="J41" s="9">
+        <v>0</v>
+      </c>
+      <c r="K41" s="9">
+        <v>1</v>
+      </c>
+      <c r="L41" s="9">
+        <v>1</v>
+      </c>
+      <c r="M41" s="9">
+        <v>1</v>
+      </c>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>6</v>
+      </c>
+      <c r="T41" s="56">
+        <f>(U41-S41)</f>
+        <v>5</v>
+      </c>
+      <c r="U41" s="8">
+        <f>COUNT(C41:R41)</f>
+        <v>11</v>
+      </c>
+      <c r="V41" s="56">
+        <v>0</v>
+      </c>
+      <c r="W41" s="8">
+        <v>0</v>
+      </c>
+      <c r="X41" s="56">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="94">
+        <f>IFERROR(S41/U41,0)</f>
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="89" t="s">
+        <v>207</v>
+      </c>
+      <c r="C42" s="9">
+        <v>1</v>
+      </c>
+      <c r="D42" s="9">
+        <v>1</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="9">
+        <v>1</v>
+      </c>
+      <c r="G42" s="9">
+        <v>2</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0</v>
+      </c>
+      <c r="I42" s="40">
+        <v>0</v>
+      </c>
+      <c r="J42" s="9">
+        <v>0</v>
+      </c>
+      <c r="K42" s="9">
+        <v>1</v>
+      </c>
+      <c r="L42" s="9">
+        <v>0</v>
+      </c>
+      <c r="M42" s="9">
+        <v>0</v>
+      </c>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>6</v>
+      </c>
+      <c r="T42" s="56">
+        <f>(U42-S42)</f>
+        <v>5</v>
+      </c>
+      <c r="U42" s="8">
+        <f>COUNT(C42:R42)+1</f>
+        <v>11</v>
+      </c>
+      <c r="V42" s="8">
+        <v>0</v>
+      </c>
+      <c r="W42" s="8">
+        <v>1</v>
+      </c>
+      <c r="X42" s="56">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>100</v>
+      </c>
+      <c r="Y42" s="55">
+        <f>IFERROR(S42/U42,0)</f>
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="9">
+        <v>1</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0</v>
+      </c>
+      <c r="H43" s="9">
+        <v>1</v>
+      </c>
+      <c r="I43" s="9">
+        <v>1</v>
+      </c>
+      <c r="J43" s="9">
+        <v>1</v>
+      </c>
+      <c r="K43" s="9">
+        <v>0</v>
+      </c>
+      <c r="L43" s="9">
+        <v>1</v>
+      </c>
+      <c r="M43" s="9">
+        <v>1</v>
+      </c>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>6</v>
+      </c>
+      <c r="T43" s="8">
+        <f>(U43-S43)</f>
+        <v>6</v>
+      </c>
+      <c r="U43" s="8">
+        <f>COUNT(C43:R43)+1</f>
+        <v>12</v>
+      </c>
+      <c r="V43" s="8">
+        <v>0</v>
+      </c>
+      <c r="W43" s="8">
+        <v>0</v>
+      </c>
+      <c r="X43" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="55">
+        <f>IFERROR(S43/U43,0)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="123" t="s">
+        <v>238</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="9">
+        <v>1</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0</v>
+      </c>
+      <c r="F44" s="9">
+        <v>1</v>
+      </c>
+      <c r="G44" s="9">
+        <v>1</v>
+      </c>
+      <c r="H44" s="9">
+        <v>1</v>
+      </c>
+      <c r="I44" s="9">
+        <v>0</v>
+      </c>
+      <c r="J44" s="9">
+        <v>1</v>
+      </c>
+      <c r="K44" s="9">
+        <v>0</v>
+      </c>
+      <c r="L44" s="9">
+        <v>0</v>
+      </c>
+      <c r="M44" s="9">
+        <v>0</v>
+      </c>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>5</v>
+      </c>
+      <c r="T44" s="56">
+        <f>(U44-S44)</f>
+        <v>5</v>
+      </c>
+      <c r="U44" s="56">
+        <f>COUNT(C44:Q44)</f>
+        <v>10</v>
+      </c>
+      <c r="V44" s="8">
+        <v>0</v>
+      </c>
+      <c r="W44" s="8">
+        <v>0</v>
+      </c>
+      <c r="X44" s="56">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="115">
+        <f>IFERROR(S44/U44,0)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="129" t="s">
+        <v>240</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0</v>
+      </c>
+      <c r="F45" s="9">
+        <v>1</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H45" s="9">
+        <v>1</v>
+      </c>
+      <c r="I45" s="9">
+        <v>0</v>
+      </c>
+      <c r="J45" s="9">
+        <v>1</v>
+      </c>
+      <c r="K45" s="9">
+        <v>1</v>
+      </c>
+      <c r="L45" s="9">
+        <v>0</v>
+      </c>
+      <c r="M45" s="9">
+        <v>0</v>
+      </c>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>4</v>
+      </c>
+      <c r="T45" s="56">
+        <f>(U45-S45)</f>
+        <v>4</v>
+      </c>
+      <c r="U45" s="56">
+        <f>COUNT(C45:Q45)</f>
+        <v>8</v>
+      </c>
+      <c r="V45" s="8">
+        <v>0</v>
+      </c>
+      <c r="W45" s="8">
+        <v>0</v>
+      </c>
+      <c r="X45" s="56">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="120">
+        <f>IFERROR(S45/U45,0)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="127" t="s">
+        <v>236</v>
+      </c>
+      <c r="C46" s="59">
+        <v>1</v>
+      </c>
+      <c r="D46" s="59">
+        <v>0</v>
+      </c>
+      <c r="E46" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="G46" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="J46" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="K46" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="L46" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="M46" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="N46" s="59"/>
+      <c r="O46" s="59"/>
+      <c r="P46" s="59"/>
+      <c r="Q46" s="59"/>
+      <c r="R46" s="59"/>
+      <c r="S46" s="85">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>1</v>
+      </c>
+      <c r="T46" s="64">
+        <f>(U46-S46)</f>
+        <v>1</v>
+      </c>
+      <c r="U46" s="64">
+        <f>COUNT(C46:Q46)</f>
+        <v>2</v>
+      </c>
+      <c r="V46" s="8">
+        <v>0</v>
+      </c>
+      <c r="W46" s="8">
+        <v>0</v>
+      </c>
+      <c r="X46" s="56">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="115">
+        <f>IFERROR(S46/U46,0)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="9">
+        <v>1</v>
+      </c>
+      <c r="D47" s="9">
+        <v>0</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0</v>
+      </c>
+      <c r="F47" s="9">
+        <v>1</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9">
+        <v>1</v>
+      </c>
+      <c r="I47" s="9">
+        <v>0</v>
+      </c>
+      <c r="J47" s="9">
+        <v>0</v>
+      </c>
+      <c r="K47" s="9">
+        <v>1</v>
+      </c>
+      <c r="L47" s="9">
+        <v>0</v>
+      </c>
+      <c r="M47" s="9">
+        <v>0</v>
+      </c>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>4</v>
+      </c>
+      <c r="T47" s="8">
+        <f>(U47-S47)</f>
+        <v>7</v>
+      </c>
+      <c r="U47" s="8">
+        <f>COUNT(C47:R47)</f>
+        <v>11</v>
+      </c>
+      <c r="V47" s="8">
+        <v>0</v>
+      </c>
+      <c r="W47" s="8">
+        <v>0</v>
+      </c>
+      <c r="X47" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y47" s="55">
+        <f>IFERROR(S47/U47,0)</f>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" s="9">
+        <v>1</v>
+      </c>
+      <c r="D48" s="9">
+        <v>0</v>
+      </c>
+      <c r="E48" s="9">
+        <v>0</v>
+      </c>
+      <c r="F48" s="9">
+        <v>1</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0</v>
+      </c>
+      <c r="H48" s="9">
+        <v>0</v>
+      </c>
+      <c r="I48" s="9">
+        <v>0</v>
+      </c>
+      <c r="J48" s="9">
+        <v>0</v>
+      </c>
+      <c r="K48" s="9">
+        <v>0</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>2</v>
+      </c>
+      <c r="T48" s="8">
+        <f>(U48-S48)</f>
+        <v>7</v>
+      </c>
+      <c r="U48" s="8">
+        <f>COUNT(C48:R48)</f>
+        <v>9</v>
+      </c>
+      <c r="V48" s="8">
+        <v>0</v>
+      </c>
+      <c r="W48" s="8">
+        <v>0</v>
+      </c>
+      <c r="X48" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="55">
+        <f>IFERROR(S48/U48,0)</f>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="49" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="126" t="s">
+        <v>241</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L49" s="9">
+        <v>0</v>
+      </c>
+      <c r="M49" s="9">
+        <v>0</v>
+      </c>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>0</v>
+      </c>
+      <c r="T49" s="56">
+        <f>(U49-S49)</f>
+        <v>2</v>
+      </c>
+      <c r="U49" s="56">
+        <f>COUNT(C49:Q49)</f>
+        <v>2</v>
+      </c>
+      <c r="V49" s="8">
+        <v>0</v>
+      </c>
+      <c r="W49" s="8">
+        <v>0</v>
+      </c>
+      <c r="X49" s="56">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="124">
+        <f>IFERROR(S49/U49,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="109" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" s="59">
+        <v>0</v>
+      </c>
+      <c r="D50" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="H50" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="I50" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="J50" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="K50" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="L50" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="M50" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="N50" s="59"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
+      <c r="Q50" s="59"/>
+      <c r="R50" s="59"/>
+      <c r="S50" s="85">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>0</v>
+      </c>
+      <c r="T50" s="64">
+        <f>(U50-S50)</f>
+        <v>1</v>
+      </c>
+      <c r="U50" s="61">
+        <f>COUNT(C50:R50)</f>
+        <v>1</v>
+      </c>
+      <c r="V50" s="8">
+        <v>0</v>
+      </c>
+      <c r="W50" s="8">
+        <v>0</v>
+      </c>
+      <c r="X50" s="64">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="94">
+        <f>IFERROR(S50/U50,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="122" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="59">
+        <v>0</v>
+      </c>
+      <c r="F51" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="G51" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="H51" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="I51" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="J51" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="K51" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="L51" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="M51" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="N51" s="59"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
+      <c r="Q51" s="59"/>
+      <c r="R51" s="59"/>
+      <c r="S51" s="85">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>0</v>
+      </c>
+      <c r="T51" s="64">
+        <f>(U51-S51)</f>
+        <v>1</v>
+      </c>
+      <c r="U51" s="64">
+        <f>COUNT(C51:Q51)</f>
+        <v>1</v>
+      </c>
+      <c r="V51" s="8">
+        <v>0</v>
+      </c>
+      <c r="W51" s="8">
+        <v>0</v>
+      </c>
+      <c r="X51" s="56">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="120">
+        <f>IFERROR(S51/U51,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="122" t="s">
+        <v>239</v>
+      </c>
+      <c r="C52" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="59">
+        <v>0</v>
+      </c>
+      <c r="F52" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="H52" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="I52" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="J52" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="K52" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="L52" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="M52" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
+      <c r="Q52" s="59"/>
+      <c r="R52" s="59"/>
+      <c r="S52" s="85">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>0</v>
+      </c>
+      <c r="T52" s="64">
+        <f>(U52-S52)</f>
+        <v>1</v>
+      </c>
+      <c r="U52" s="64">
+        <f>COUNT(C52:Q52)</f>
+        <v>1</v>
+      </c>
+      <c r="V52" s="56">
+        <v>0</v>
+      </c>
+      <c r="W52" s="8">
+        <v>0</v>
+      </c>
+      <c r="X52" s="56">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="120">
+        <f>IFERROR(S52/U52,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="76" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="9">
+        <v>0</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L53" s="40">
+        <v>0</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="70">
+        <f>SUM(Table13[[#This Row],[02/02/2019]:[Column16]])</f>
+        <v>0</v>
+      </c>
+      <c r="T53" s="56">
+        <f>(U53-S53)</f>
+        <v>2</v>
+      </c>
+      <c r="U53" s="8">
+        <f>COUNT(C53:R53)</f>
+        <v>2</v>
+      </c>
+      <c r="V53" s="8">
+        <v>2</v>
+      </c>
+      <c r="W53" s="8">
+        <v>1</v>
+      </c>
+      <c r="X53" s="8">
+        <f>(Table13[[#This Row],[Missed Collection Days]]*25)+(Table13[[#This Row],[Missed War Matches]]*100)</f>
+        <v>150</v>
+      </c>
+      <c r="Y53" s="62">
+        <f>IFERROR(S53/U53,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="80">
+        <f>SUM(Table13[02/02/2019])/COUNT(Table13[02/02/2019])</f>
+        <v>0.92105263157894735</v>
+      </c>
+      <c r="D54" s="80">
+        <f>SUM(Table13[04/02/2019])/COUNT(Table13[04/02/2019])</f>
+        <v>0.87804878048780488</v>
+      </c>
+      <c r="E54" s="80">
+        <f>SUM(Table13[06/02/2019])/COUNT(Table13[06/02/2019])</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F54" s="80">
+        <f>SUM(Table13[08/02/2019])/COUNT(Table13[08/02/2019])</f>
+        <v>0.79069767441860461</v>
+      </c>
+      <c r="G54" s="80">
+        <f>SUM(Table13[10/02/2019])/(COUNT(Table13[10/02/2019])+1)</f>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="H54" s="80">
+        <f>SUM(Table13[12/02/2019])/(COUNT(Table13[12/02/2019])+1)</f>
+        <v>0.63414634146341464</v>
+      </c>
+      <c r="I54" s="80">
+        <f>SUM(Table13[14/02/2019])/COUNT(Table13[14/02/2019])</f>
+        <v>0.63414634146341464</v>
+      </c>
+      <c r="J54" s="80">
+        <f>SUM(Table13[16/02/2019])/COUNT(Table13[16/02/2019])</f>
+        <v>0.79487179487179482</v>
+      </c>
+      <c r="K54" s="80">
+        <f>SUM(Table13[18/02/2019])/COUNT(Table13[18/02/2019])</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="L54" s="80">
+        <f>SUM(Table13[20/02/2019])/(COUNT(Table13[20/02/2019]))</f>
+        <v>0.61363636363636365</v>
+      </c>
+      <c r="M54" s="80">
+        <f>SUM(Table13[22/02/2019])/(COUNT(Table13[22/02/2019]))</f>
+        <v>0.75609756097560976</v>
+      </c>
+      <c r="N54" s="80" t="e">
+        <f>SUM(Table13[24/02/2019])/(COUNT(Table13[24/02/2019]))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O54" s="80" t="e">
+        <f>SUM(Table13[26/02/2019])/(COUNT(Table13[26/02/2019]))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P54" s="80" t="e">
+        <f>SUM(Table13[28/02/2019])/(COUNT(Table13[28/02/2019]))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q54" s="80" t="e">
+        <f>SUM(Table13[Column15])/(COUNT(Table13[Column15]))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R54" s="80" t="e">
+        <f>SUM(Table13[Column16])/(COUNT(Table13[Column16]))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S54" s="81">
+        <f>SUM(S3:S53)</f>
+        <v>338</v>
+      </c>
+      <c r="T54" s="82">
+        <f>SUM(T3:T53)</f>
+        <v>125</v>
+      </c>
+      <c r="U54" s="82">
+        <f>SUM(U3:U53)</f>
+        <v>463</v>
+      </c>
+      <c r="V54" s="82">
+        <f>SUM(Table13[Missed Collection Days])</f>
+        <v>22</v>
+      </c>
+      <c r="W54" s="82">
+        <f>SUM(Table13[Missed War Matches])</f>
+        <v>5</v>
+      </c>
+      <c r="X54" s="83">
+        <f>AVERAGE(Table13[Points])</f>
+        <v>20.588235294117649</v>
+      </c>
+      <c r="Y54" s="84">
+        <f>AVERAGE(C54:H54)</f>
+        <v>0.80260201576923962</v>
+      </c>
+    </row>
+    <row r="55" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="112" t="s">
+        <v>219</v>
+      </c>
+      <c r="C55" s="114">
+        <f t="shared" ref="C55:R55" si="0">COUNT(C3:C53)</f>
+        <v>38</v>
+      </c>
+      <c r="D55" s="114">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E55" s="114">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="F55" s="114">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="G55" s="114">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="H55" s="114">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I55" s="114">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="J55" s="114">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="K55" s="114">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="L55" s="114">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="M55" s="114">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="N55" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S55" s="83"/>
+      <c r="T55" s="83"/>
+      <c r="U55" s="83"/>
+      <c r="V55" s="83"/>
+      <c r="W55" s="83"/>
+      <c r="X55" s="83"/>
+      <c r="Y55" s="113"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="Y3:Y53">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3:X53">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3:V53">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W3:W53">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>